--- a/all_results.xlsx
+++ b/all_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21950" windowHeight="11330"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="54">
   <si>
     <t>Wine1</t>
   </si>
@@ -172,6 +172,24 @@
   <si>
     <t>Glass1</t>
   </si>
+  <si>
+    <t>CatBoostClassifier</t>
+  </si>
+  <si>
+    <t>SMOTEBoostClassifier</t>
+  </si>
+  <si>
+    <t>OverBaggingClassifier</t>
+  </si>
+  <si>
+    <t>OverBoostClassifier</t>
+  </si>
+  <si>
+    <t>SMOTEBaggingClassifier</t>
+  </si>
+  <si>
+    <t>KmeansSMOTEBoostClassifier</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +201,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,13 +211,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -229,7 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -722,13 +732,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,118 +750,115 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -865,34 +875,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1418,10 +1428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:J378"/>
+  <dimension ref="A4:J391"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="J375" sqref="J375"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="N364" sqref="N364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
@@ -6048,258 +6058,258 @@
       </c>
     </row>
     <row r="200" spans="1:10">
-      <c r="A200" s="12" t="s">
+      <c r="A200" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B200" s="12">
+      <c r="B200" s="5">
         <v>0.9854</v>
       </c>
-      <c r="C200" s="12">
+      <c r="C200" s="5">
         <v>0.9265</v>
       </c>
-      <c r="D200" s="12">
+      <c r="D200" s="5">
         <v>0.9893</v>
       </c>
-      <c r="E200" s="12">
+      <c r="E200" s="5">
         <v>0.9396</v>
       </c>
-      <c r="F200" s="12">
+      <c r="F200" s="5">
         <v>0.9572</v>
       </c>
-      <c r="G200" s="12">
+      <c r="G200" s="5">
         <v>0.9952</v>
       </c>
-      <c r="H200" s="13">
+      <c r="H200" s="12">
         <v>0.9533</v>
       </c>
-      <c r="I200" s="12">
+      <c r="I200" s="5">
         <v>0.9248</v>
       </c>
-      <c r="J200" s="12">
+      <c r="J200" s="5">
         <v>0.9579</v>
       </c>
     </row>
     <row r="201" spans="1:10">
-      <c r="A201" s="12" t="s">
+      <c r="A201" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B201" s="12">
+      <c r="B201" s="5">
         <v>0.9714</v>
       </c>
-      <c r="C201" s="12">
+      <c r="C201" s="5">
         <v>0.9568</v>
       </c>
-      <c r="D201" s="12">
+      <c r="D201" s="5">
         <v>0.9723</v>
       </c>
-      <c r="E201" s="12">
+      <c r="E201" s="5">
         <v>0.8947</v>
       </c>
-      <c r="F201" s="12">
+      <c r="F201" s="5">
         <v>0.9644</v>
       </c>
-      <c r="G201" s="12">
+      <c r="G201" s="5">
         <v>0.9942</v>
       </c>
-      <c r="H201" s="12">
+      <c r="H201" s="5">
         <v>0.9253</v>
       </c>
-      <c r="I201" s="12">
+      <c r="I201" s="5">
         <v>0.8467</v>
       </c>
-      <c r="J201" s="12">
+      <c r="J201" s="5">
         <v>0.9646</v>
       </c>
     </row>
     <row r="202" spans="1:10">
-      <c r="A202" s="12" t="s">
+      <c r="A202" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B202" s="12">
+      <c r="B202" s="5">
         <v>0.9661</v>
       </c>
-      <c r="C202" s="12">
+      <c r="C202" s="5">
         <v>0.9264</v>
       </c>
-      <c r="D202" s="12">
+      <c r="D202" s="5">
         <v>0.9687</v>
       </c>
-      <c r="E202" s="12">
+      <c r="E202" s="5">
         <v>0.8761</v>
       </c>
-      <c r="F202" s="12">
+      <c r="F202" s="5">
         <v>0.9471</v>
       </c>
-      <c r="G202" s="12">
+      <c r="G202" s="5">
         <v>0.9733</v>
       </c>
-      <c r="H202" s="12">
+      <c r="H202" s="5">
         <v>0.7373</v>
       </c>
-      <c r="I202" s="12">
+      <c r="I202" s="5">
         <v>0.8281</v>
       </c>
-      <c r="J202" s="12">
+      <c r="J202" s="5">
         <v>0.9475</v>
       </c>
     </row>
     <row r="203" spans="1:10">
-      <c r="A203" s="12" t="s">
+      <c r="A203" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B203" s="12">
+      <c r="B203" s="5">
         <v>0.9343</v>
       </c>
-      <c r="C203" s="12">
+      <c r="C203" s="5">
         <v>0.7748</v>
       </c>
-      <c r="D203" s="12">
+      <c r="D203" s="5">
         <v>0.9446</v>
       </c>
-      <c r="E203" s="12">
+      <c r="E203" s="5">
         <v>0.7821</v>
       </c>
-      <c r="F203" s="12">
+      <c r="F203" s="5">
         <v>0.8541</v>
       </c>
-      <c r="G203" s="12">
+      <c r="G203" s="5">
         <v>0.9418</v>
       </c>
-      <c r="H203" s="12">
+      <c r="H203" s="5">
         <v>0.581</v>
       </c>
-      <c r="I203" s="12">
+      <c r="I203" s="5">
         <v>0.743</v>
       </c>
-      <c r="J203" s="12">
+      <c r="J203" s="5">
         <v>0.8597</v>
       </c>
     </row>
     <row r="204" spans="1:10">
-      <c r="A204" s="12" t="s">
+      <c r="A204" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B204" s="12">
+      <c r="B204" s="5">
         <v>0.9624</v>
       </c>
-      <c r="C204" s="12">
+      <c r="C204" s="5">
         <v>0.9395</v>
       </c>
-      <c r="D204" s="12">
+      <c r="D204" s="5">
         <v>0.9639</v>
       </c>
-      <c r="E204" s="12">
+      <c r="E204" s="5">
         <v>0.8673</v>
       </c>
-      <c r="F204" s="12">
+      <c r="F204" s="5">
         <v>0.9514</v>
       </c>
-      <c r="G204" s="12">
+      <c r="G204" s="5">
         <v>0.9898</v>
       </c>
-      <c r="H204" s="12">
+      <c r="H204" s="5">
         <v>0.8818</v>
       </c>
-      <c r="I204" s="12">
+      <c r="I204" s="5">
         <v>0.8148</v>
       </c>
-      <c r="J204" s="12">
+      <c r="J204" s="5">
         <v>0.9517</v>
       </c>
     </row>
     <row r="205" spans="1:10">
-      <c r="A205" s="12" t="s">
+      <c r="A205" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B205" s="12">
+      <c r="B205" s="5">
         <v>0.8558</v>
       </c>
-      <c r="C205" s="12">
+      <c r="C205" s="5">
         <v>0.9784</v>
       </c>
-      <c r="D205" s="12">
+      <c r="D205" s="5">
         <v>0.8478</v>
       </c>
-      <c r="E205" s="12">
+      <c r="E205" s="5">
         <v>0.6871</v>
       </c>
-      <c r="F205" s="12">
+      <c r="F205" s="5">
         <v>0.9105</v>
       </c>
-      <c r="G205" s="12">
+      <c r="G205" s="5">
         <v>0.937</v>
       </c>
-      <c r="H205" s="12">
+      <c r="H205" s="5">
         <v>0.4325</v>
       </c>
-      <c r="I205" s="12">
+      <c r="I205" s="5">
         <v>0.649</v>
       </c>
-      <c r="J205" s="12">
+      <c r="J205" s="5">
         <v>0.9131</v>
       </c>
     </row>
     <row r="206" spans="1:10">
-      <c r="A206" s="12" t="s">
+      <c r="A206" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B206" s="12">
+      <c r="B206" s="5">
         <v>0.9658</v>
       </c>
-      <c r="C206" s="12">
+      <c r="C206" s="5">
         <v>0.8962</v>
       </c>
-      <c r="D206" s="12">
+      <c r="D206" s="5">
         <v>0.9703</v>
       </c>
-      <c r="E206" s="12">
+      <c r="E206" s="5">
         <v>0.8726</v>
       </c>
-      <c r="F206" s="12">
+      <c r="F206" s="5">
         <v>0.9324</v>
       </c>
-      <c r="G206" s="12">
+      <c r="G206" s="5">
         <v>0.9564</v>
       </c>
-      <c r="H206" s="12">
+      <c r="H206" s="5">
         <v>0.7539</v>
       </c>
-      <c r="I206" s="12">
+      <c r="I206" s="5">
         <v>0.8301</v>
       </c>
-      <c r="J206" s="12">
+      <c r="J206" s="5">
         <v>0.9333</v>
       </c>
     </row>
     <row r="207" spans="1:10">
-      <c r="A207" s="12" t="s">
+      <c r="A207" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B207" s="12">
+      <c r="B207" s="5">
         <v>0.97</v>
       </c>
-      <c r="C207" s="12">
+      <c r="C207" s="5">
         <v>0.8183</v>
       </c>
-      <c r="D207" s="12">
+      <c r="D207" s="5">
         <v>0.9799</v>
       </c>
-      <c r="E207" s="12">
+      <c r="E207" s="5">
         <v>0.8768</v>
       </c>
-      <c r="F207" s="12">
+      <c r="F207" s="5">
         <v>0.8948</v>
       </c>
-      <c r="G207" s="12">
+      <c r="G207" s="5">
         <v>0.9656</v>
       </c>
-      <c r="H207" s="12">
+      <c r="H207" s="5">
         <v>0.7653</v>
       </c>
-      <c r="I207" s="12">
+      <c r="I207" s="5">
         <v>0.8598</v>
       </c>
-      <c r="J207" s="12">
+      <c r="J207" s="5">
         <v>0.8991</v>
       </c>
     </row>
@@ -6376,287 +6386,287 @@
       <c r="A216" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B216" s="12">
+      <c r="B216" s="5">
         <v>0.7847</v>
       </c>
-      <c r="C216" s="12">
+      <c r="C216" s="5">
         <v>0.4761</v>
       </c>
-      <c r="D216" s="12">
+      <c r="D216" s="5">
         <v>0.8042</v>
       </c>
-      <c r="E216" s="12">
+      <c r="E216" s="5">
         <v>0.5422</v>
       </c>
-      <c r="F216" s="12">
+      <c r="F216" s="5">
         <v>0.6185</v>
       </c>
-      <c r="G216" s="12">
+      <c r="G216" s="5">
         <v>0.7171</v>
       </c>
-      <c r="H216" s="12">
+      <c r="H216" s="5">
         <v>0.1372</v>
       </c>
-      <c r="I216" s="12">
+      <c r="I216" s="5">
         <v>0.5471</v>
       </c>
-      <c r="J216" s="12">
+      <c r="J216" s="5">
         <v>0.6402</v>
       </c>
     </row>
     <row r="217" spans="1:10">
-      <c r="A217" s="12" t="s">
+      <c r="A217" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B217" s="12">
+      <c r="B217" s="5">
         <v>0.8196</v>
       </c>
-      <c r="C217" s="12">
+      <c r="C217" s="5">
         <v>0.331</v>
       </c>
-      <c r="D217" s="12">
+      <c r="D217" s="5">
         <v>0.8506</v>
       </c>
-      <c r="E217" s="12">
+      <c r="E217" s="5">
         <v>0.5393</v>
       </c>
-      <c r="F217" s="12">
+      <c r="F217" s="5">
         <v>0.5305</v>
       </c>
-      <c r="G217" s="12">
+      <c r="G217" s="5">
         <v>0.6515</v>
       </c>
-      <c r="H217" s="12">
+      <c r="H217" s="5">
         <v>0.1174</v>
       </c>
-      <c r="I217" s="12">
+      <c r="I217" s="5">
         <v>0.538</v>
       </c>
-      <c r="J217" s="12">
+      <c r="J217" s="5">
         <v>0.5908</v>
       </c>
     </row>
     <row r="218" spans="1:10">
-      <c r="A218" s="12" t="s">
+      <c r="A218" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B218" s="12">
+      <c r="B218" s="5">
         <v>0.7755</v>
       </c>
-      <c r="C218" s="12">
+      <c r="C218" s="5">
         <v>0.5068</v>
       </c>
-      <c r="D218" s="12">
+      <c r="D218" s="5">
         <v>0.7926</v>
       </c>
-      <c r="E218" s="12">
+      <c r="E218" s="5">
         <v>0.5407</v>
       </c>
-      <c r="F218" s="12">
+      <c r="F218" s="5">
         <v>0.6332</v>
       </c>
-      <c r="G218" s="12">
+      <c r="G218" s="5">
         <v>0.7293</v>
       </c>
-      <c r="H218" s="12">
+      <c r="H218" s="5">
         <v>0.1532</v>
       </c>
-      <c r="I218" s="12">
+      <c r="I218" s="5">
         <v>0.5482</v>
       </c>
-      <c r="J218" s="12">
+      <c r="J218" s="5">
         <v>0.6497</v>
       </c>
     </row>
     <row r="219" spans="1:10">
-      <c r="A219" s="12" t="s">
+      <c r="A219" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B219" s="12">
+      <c r="B219" s="5">
         <v>0.7034</v>
       </c>
-      <c r="C219" s="12">
+      <c r="C219" s="5">
         <v>0.6723</v>
       </c>
-      <c r="D219" s="12">
+      <c r="D219" s="5">
         <v>0.7054</v>
       </c>
-      <c r="E219" s="12">
+      <c r="E219" s="5">
         <v>0.5151</v>
       </c>
-      <c r="F219" s="12">
+      <c r="F219" s="5">
         <v>0.6886</v>
       </c>
-      <c r="G219" s="12">
+      <c r="G219" s="5">
         <v>0.7538</v>
       </c>
-      <c r="H219" s="12">
+      <c r="H219" s="5">
         <v>0.1874</v>
       </c>
-      <c r="I219" s="12">
+      <c r="I219" s="5">
         <v>0.5489</v>
       </c>
-      <c r="J219" s="12">
+      <c r="J219" s="5">
         <v>0.6889</v>
       </c>
     </row>
     <row r="220" spans="1:10">
-      <c r="A220" s="12" t="s">
+      <c r="A220" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B220" s="12">
+      <c r="B220" s="5">
         <v>0.6728</v>
       </c>
-      <c r="C220" s="12">
+      <c r="C220" s="5">
         <v>0.6108</v>
       </c>
-      <c r="D220" s="12">
+      <c r="D220" s="5">
         <v>0.6767</v>
       </c>
-      <c r="E220" s="12">
+      <c r="E220" s="5">
         <v>0.4885</v>
       </c>
-      <c r="F220" s="12">
+      <c r="F220" s="5">
         <v>0.6408</v>
       </c>
-      <c r="G220" s="12">
+      <c r="G220" s="5">
         <v>0.7034</v>
       </c>
-      <c r="H220" s="12">
+      <c r="H220" s="5">
         <v>0.1415</v>
       </c>
-      <c r="I220" s="12">
+      <c r="I220" s="5">
         <v>0.5359</v>
       </c>
-      <c r="J220" s="12">
+      <c r="J220" s="5">
         <v>0.6438</v>
       </c>
     </row>
     <row r="221" spans="1:10">
-      <c r="A221" s="12" t="s">
+      <c r="A221" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B221" s="12">
+      <c r="B221" s="5">
         <v>0.684</v>
       </c>
-      <c r="C221" s="12">
+      <c r="C221" s="5">
         <v>0.6553</v>
       </c>
-      <c r="D221" s="12">
+      <c r="D221" s="5">
         <v>0.6858</v>
       </c>
-      <c r="E221" s="12">
+      <c r="E221" s="5">
         <v>0.5008</v>
       </c>
-      <c r="F221" s="12">
+      <c r="F221" s="5">
         <v>0.6701</v>
       </c>
-      <c r="G221" s="12">
+      <c r="G221" s="5">
         <v>0.7297</v>
       </c>
-      <c r="H221" s="12">
+      <c r="H221" s="5">
         <v>0.1535</v>
       </c>
-      <c r="I221" s="12">
+      <c r="I221" s="5">
         <v>0.543</v>
       </c>
-      <c r="J221" s="12">
+      <c r="J221" s="5">
         <v>0.6705</v>
       </c>
     </row>
     <row r="222" spans="1:10">
-      <c r="A222" s="12" t="s">
+      <c r="A222" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B222" s="12">
+      <c r="B222" s="5">
         <v>0.8365</v>
       </c>
-      <c r="C222" s="12">
+      <c r="C222" s="5">
         <v>0.408</v>
       </c>
-      <c r="D222" s="12">
+      <c r="D222" s="5">
         <v>0.8637</v>
       </c>
-      <c r="E222" s="12">
+      <c r="E222" s="5">
         <v>0.5682</v>
       </c>
-      <c r="F222" s="12">
+      <c r="F222" s="5">
         <v>0.5888</v>
       </c>
-      <c r="G222" s="12">
+      <c r="G222" s="5">
         <v>0.7431</v>
       </c>
-      <c r="H222" s="12">
+      <c r="H222" s="5">
         <v>0.1646</v>
       </c>
-      <c r="I222" s="12">
+      <c r="I222" s="5">
         <v>0.5598</v>
       </c>
-      <c r="J222" s="12">
+      <c r="J222" s="5">
         <v>0.6359</v>
       </c>
     </row>
     <row r="223" spans="1:10">
-      <c r="A223" s="12" t="s">
+      <c r="A223" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B223" s="12">
+      <c r="B223" s="5">
         <v>0.7135</v>
       </c>
-      <c r="C223" s="12">
+      <c r="C223" s="5">
         <v>0.6433</v>
       </c>
-      <c r="D223" s="12">
+      <c r="D223" s="5">
         <v>0.718</v>
       </c>
-      <c r="E223" s="12">
+      <c r="E223" s="5">
         <v>0.5181</v>
       </c>
-      <c r="F223" s="12">
+      <c r="F223" s="5">
         <v>0.6791</v>
       </c>
-      <c r="G223" s="12">
+      <c r="G223" s="5">
         <v>0.7352</v>
       </c>
-      <c r="H223" s="12">
+      <c r="H223" s="5">
         <v>0.161</v>
       </c>
-      <c r="I223" s="12">
+      <c r="I223" s="5">
         <v>0.5479</v>
       </c>
-      <c r="J223" s="12">
+      <c r="J223" s="5">
         <v>0.6806</v>
       </c>
     </row>
     <row r="224" spans="1:10">
-      <c r="A224" s="12" t="s">
+      <c r="A224" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B224" s="12">
+      <c r="B224" s="5">
         <v>0.9032</v>
       </c>
-      <c r="C224" s="12">
+      <c r="C224" s="5">
         <v>0.2167</v>
       </c>
-      <c r="D224" s="12">
+      <c r="D224" s="5">
         <v>0.9467</v>
       </c>
-      <c r="E224" s="12">
+      <c r="E224" s="5">
         <v>0.5798</v>
       </c>
-      <c r="F224" s="12">
+      <c r="F224" s="5">
         <v>0.4528</v>
       </c>
-      <c r="G224" s="12">
+      <c r="G224" s="5">
         <v>0.7319</v>
       </c>
-      <c r="H224" s="12">
+      <c r="H224" s="5">
         <v>0.1556</v>
       </c>
-      <c r="I224" s="12">
+      <c r="I224" s="5">
         <v>0.5782</v>
       </c>
-      <c r="J224" s="12">
+      <c r="J224" s="5">
         <v>0.5817</v>
       </c>
     </row>
@@ -6743,287 +6753,287 @@
       <c r="A233" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B233" s="14">
+      <c r="B233" s="4">
         <v>0.7847</v>
       </c>
-      <c r="C233" s="14">
+      <c r="C233" s="4">
         <v>0.4761</v>
       </c>
-      <c r="D233" s="14">
+      <c r="D233" s="4">
         <v>0.8042</v>
       </c>
-      <c r="E233" s="14">
+      <c r="E233" s="4">
         <v>0.5422</v>
       </c>
-      <c r="F233" s="14">
+      <c r="F233" s="4">
         <v>0.6185</v>
       </c>
-      <c r="G233" s="14">
+      <c r="G233" s="4">
         <v>0.7171</v>
       </c>
-      <c r="H233" s="14">
+      <c r="H233" s="4">
         <v>0.1372</v>
       </c>
-      <c r="I233" s="14">
+      <c r="I233" s="4">
         <v>0.5471</v>
       </c>
-      <c r="J233" s="14">
+      <c r="J233" s="4">
         <v>0.6402</v>
       </c>
     </row>
     <row r="234" spans="1:10">
-      <c r="A234" s="12" t="s">
+      <c r="A234" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B234" s="14">
+      <c r="B234" s="4">
         <v>0.8196</v>
       </c>
-      <c r="C234" s="14">
+      <c r="C234" s="4">
         <v>0.331</v>
       </c>
-      <c r="D234" s="14">
+      <c r="D234" s="4">
         <v>0.8506</v>
       </c>
-      <c r="E234" s="14">
+      <c r="E234" s="4">
         <v>0.5393</v>
       </c>
-      <c r="F234" s="14">
+      <c r="F234" s="4">
         <v>0.5305</v>
       </c>
-      <c r="G234" s="14">
+      <c r="G234" s="4">
         <v>0.6515</v>
       </c>
-      <c r="H234" s="14">
+      <c r="H234" s="4">
         <v>0.1174</v>
       </c>
-      <c r="I234" s="14">
+      <c r="I234" s="4">
         <v>0.538</v>
       </c>
-      <c r="J234" s="14">
+      <c r="J234" s="4">
         <v>0.5908</v>
       </c>
     </row>
     <row r="235" spans="1:10">
-      <c r="A235" s="12" t="s">
+      <c r="A235" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B235" s="14">
+      <c r="B235" s="4">
         <v>0.7755</v>
       </c>
-      <c r="C235" s="14">
+      <c r="C235" s="4">
         <v>0.5068</v>
       </c>
-      <c r="D235" s="14">
+      <c r="D235" s="4">
         <v>0.7926</v>
       </c>
-      <c r="E235" s="14">
+      <c r="E235" s="4">
         <v>0.5407</v>
       </c>
-      <c r="F235" s="14">
+      <c r="F235" s="4">
         <v>0.6332</v>
       </c>
-      <c r="G235" s="14">
+      <c r="G235" s="4">
         <v>0.7293</v>
       </c>
-      <c r="H235" s="14">
+      <c r="H235" s="4">
         <v>0.1532</v>
       </c>
-      <c r="I235" s="14">
+      <c r="I235" s="4">
         <v>0.5482</v>
       </c>
-      <c r="J235" s="14">
+      <c r="J235" s="4">
         <v>0.6497</v>
       </c>
     </row>
     <row r="236" spans="1:10">
-      <c r="A236" s="12" t="s">
+      <c r="A236" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B236" s="14">
+      <c r="B236" s="4">
         <v>0.7034</v>
       </c>
-      <c r="C236" s="14">
+      <c r="C236" s="4">
         <v>0.6723</v>
       </c>
-      <c r="D236" s="14">
+      <c r="D236" s="4">
         <v>0.7054</v>
       </c>
-      <c r="E236" s="14">
+      <c r="E236" s="4">
         <v>0.5151</v>
       </c>
-      <c r="F236" s="14">
+      <c r="F236" s="4">
         <v>0.6886</v>
       </c>
-      <c r="G236" s="14">
+      <c r="G236" s="4">
         <v>0.7538</v>
       </c>
-      <c r="H236" s="14">
+      <c r="H236" s="4">
         <v>0.1874</v>
       </c>
-      <c r="I236" s="14">
+      <c r="I236" s="4">
         <v>0.5489</v>
       </c>
-      <c r="J236" s="14">
+      <c r="J236" s="4">
         <v>0.6889</v>
       </c>
     </row>
     <row r="237" spans="1:10">
-      <c r="A237" s="12" t="s">
+      <c r="A237" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B237" s="14">
+      <c r="B237" s="4">
         <v>0.6728</v>
       </c>
-      <c r="C237" s="14">
+      <c r="C237" s="4">
         <v>0.6108</v>
       </c>
-      <c r="D237" s="14">
+      <c r="D237" s="4">
         <v>0.6767</v>
       </c>
-      <c r="E237" s="14">
+      <c r="E237" s="4">
         <v>0.4885</v>
       </c>
-      <c r="F237" s="14">
+      <c r="F237" s="4">
         <v>0.6408</v>
       </c>
-      <c r="G237" s="14">
+      <c r="G237" s="4">
         <v>0.7034</v>
       </c>
-      <c r="H237" s="14">
+      <c r="H237" s="4">
         <v>0.1415</v>
       </c>
-      <c r="I237" s="14">
+      <c r="I237" s="4">
         <v>0.5359</v>
       </c>
-      <c r="J237" s="14">
+      <c r="J237" s="4">
         <v>0.6438</v>
       </c>
     </row>
     <row r="238" spans="1:10">
-      <c r="A238" s="12" t="s">
+      <c r="A238" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B238" s="14">
+      <c r="B238" s="4">
         <v>0.684</v>
       </c>
-      <c r="C238" s="14">
+      <c r="C238" s="4">
         <v>0.6553</v>
       </c>
-      <c r="D238" s="14">
+      <c r="D238" s="4">
         <v>0.6858</v>
       </c>
-      <c r="E238" s="14">
+      <c r="E238" s="4">
         <v>0.5008</v>
       </c>
-      <c r="F238" s="14">
+      <c r="F238" s="4">
         <v>0.6701</v>
       </c>
-      <c r="G238" s="14">
+      <c r="G238" s="4">
         <v>0.7297</v>
       </c>
-      <c r="H238" s="14">
+      <c r="H238" s="4">
         <v>0.1535</v>
       </c>
-      <c r="I238" s="14">
+      <c r="I238" s="4">
         <v>0.543</v>
       </c>
-      <c r="J238" s="14">
+      <c r="J238" s="4">
         <v>0.6705</v>
       </c>
     </row>
     <row r="239" spans="1:10">
-      <c r="A239" s="12" t="s">
+      <c r="A239" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B239" s="14">
+      <c r="B239" s="4">
         <v>0.8365</v>
       </c>
-      <c r="C239" s="14">
+      <c r="C239" s="4">
         <v>0.408</v>
       </c>
-      <c r="D239" s="14">
+      <c r="D239" s="4">
         <v>0.8637</v>
       </c>
-      <c r="E239" s="14">
+      <c r="E239" s="4">
         <v>0.5682</v>
       </c>
-      <c r="F239" s="14">
+      <c r="F239" s="4">
         <v>0.5888</v>
       </c>
-      <c r="G239" s="14">
+      <c r="G239" s="4">
         <v>0.7431</v>
       </c>
-      <c r="H239" s="14">
+      <c r="H239" s="4">
         <v>0.1646</v>
       </c>
-      <c r="I239" s="14">
+      <c r="I239" s="4">
         <v>0.5598</v>
       </c>
-      <c r="J239" s="14">
+      <c r="J239" s="4">
         <v>0.6359</v>
       </c>
     </row>
     <row r="240" spans="1:10">
-      <c r="A240" s="12" t="s">
+      <c r="A240" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B240" s="14">
+      <c r="B240" s="4">
         <v>0.7135</v>
       </c>
-      <c r="C240" s="14">
+      <c r="C240" s="4">
         <v>0.6433</v>
       </c>
-      <c r="D240" s="14">
+      <c r="D240" s="4">
         <v>0.718</v>
       </c>
-      <c r="E240" s="14">
+      <c r="E240" s="4">
         <v>0.5181</v>
       </c>
-      <c r="F240" s="14">
+      <c r="F240" s="4">
         <v>0.6791</v>
       </c>
-      <c r="G240" s="14">
+      <c r="G240" s="4">
         <v>0.7352</v>
       </c>
-      <c r="H240" s="14">
+      <c r="H240" s="4">
         <v>0.161</v>
       </c>
-      <c r="I240" s="14">
+      <c r="I240" s="4">
         <v>0.5479</v>
       </c>
-      <c r="J240" s="14">
+      <c r="J240" s="4">
         <v>0.6806</v>
       </c>
     </row>
     <row r="241" spans="1:10">
-      <c r="A241" s="12" t="s">
+      <c r="A241" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B241" s="14">
+      <c r="B241" s="4">
         <v>0.9032</v>
       </c>
-      <c r="C241" s="14">
+      <c r="C241" s="4">
         <v>0.2167</v>
       </c>
-      <c r="D241" s="14">
+      <c r="D241" s="4">
         <v>0.9467</v>
       </c>
-      <c r="E241" s="14">
+      <c r="E241" s="4">
         <v>0.5798</v>
       </c>
-      <c r="F241" s="14">
+      <c r="F241" s="4">
         <v>0.4528</v>
       </c>
-      <c r="G241" s="14">
+      <c r="G241" s="4">
         <v>0.7319</v>
       </c>
-      <c r="H241" s="14">
+      <c r="H241" s="4">
         <v>0.1556</v>
       </c>
-      <c r="I241" s="14">
+      <c r="I241" s="4">
         <v>0.5782</v>
       </c>
-      <c r="J241" s="14">
+      <c r="J241" s="4">
         <v>0.5817</v>
       </c>
     </row>
@@ -7057,7 +7067,7 @@
       </c>
     </row>
     <row r="249" spans="1:10">
-      <c r="A249" s="15" t="s">
+      <c r="A249" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B249" s="10" t="s">
@@ -7121,7 +7131,7 @@
       </c>
     </row>
     <row r="251" spans="1:10">
-      <c r="A251" s="12" t="s">
+      <c r="A251" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B251" s="4">
@@ -7153,7 +7163,7 @@
       </c>
     </row>
     <row r="252" spans="1:10">
-      <c r="A252" s="12" t="s">
+      <c r="A252" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B252" s="4">
@@ -7185,7 +7195,7 @@
       </c>
     </row>
     <row r="253" spans="1:10">
-      <c r="A253" s="12" t="s">
+      <c r="A253" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B253" s="4">
@@ -7217,7 +7227,7 @@
       </c>
     </row>
     <row r="254" spans="1:10">
-      <c r="A254" s="12" t="s">
+      <c r="A254" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B254" s="4">
@@ -7249,7 +7259,7 @@
       </c>
     </row>
     <row r="255" spans="1:10">
-      <c r="A255" s="12" t="s">
+      <c r="A255" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B255" s="4">
@@ -7264,7 +7274,7 @@
       <c r="E255" s="4">
         <v>0.6153</v>
       </c>
-      <c r="F255" s="16">
+      <c r="F255" s="14">
         <v>0.8436</v>
       </c>
       <c r="G255" s="4">
@@ -7281,7 +7291,7 @@
       </c>
     </row>
     <row r="256" spans="1:10">
-      <c r="A256" s="12" t="s">
+      <c r="A256" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B256" s="4">
@@ -7313,7 +7323,7 @@
       </c>
     </row>
     <row r="257" spans="1:10">
-      <c r="A257" s="12" t="s">
+      <c r="A257" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B257" s="4">
@@ -7345,7 +7355,7 @@
       </c>
     </row>
     <row r="258" spans="1:10">
-      <c r="A258" s="12" t="s">
+      <c r="A258" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B258" s="4">
@@ -7424,7 +7434,7 @@
       </c>
     </row>
     <row r="265" spans="1:10">
-      <c r="A265" s="15" t="s">
+      <c r="A265" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B265" s="10" t="s">
@@ -7459,287 +7469,287 @@
       <c r="A266" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B266" s="14">
+      <c r="B266" s="4">
         <v>0.9983</v>
       </c>
-      <c r="C266" s="14">
+      <c r="C266" s="4">
         <v>1</v>
       </c>
-      <c r="D266" s="14">
+      <c r="D266" s="4">
         <v>0.9982</v>
       </c>
-      <c r="E266" s="14">
+      <c r="E266" s="4">
         <v>0.9887</v>
       </c>
-      <c r="F266" s="14">
+      <c r="F266" s="4">
         <v>0.9991</v>
       </c>
-      <c r="G266" s="14">
+      <c r="G266" s="4">
         <v>0.9999</v>
       </c>
-      <c r="H266" s="14">
+      <c r="H266" s="4">
         <v>0.9968</v>
       </c>
-      <c r="I266" s="14">
+      <c r="I266" s="4">
         <v>0.9795</v>
       </c>
-      <c r="J266" s="14">
+      <c r="J266" s="4">
         <v>0.9991</v>
       </c>
     </row>
     <row r="267" spans="1:10">
-      <c r="A267" s="12" t="s">
+      <c r="A267" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B267" s="14">
+      <c r="B267" s="4">
         <v>0.9832</v>
       </c>
-      <c r="C267" s="14">
+      <c r="C267" s="4">
         <v>1</v>
       </c>
-      <c r="D267" s="14">
+      <c r="D267" s="4">
         <v>0.9826</v>
       </c>
-      <c r="E267" s="14">
+      <c r="E267" s="4">
         <v>0.9096</v>
       </c>
-      <c r="F267" s="14">
+      <c r="F267" s="4">
         <v>0.9912</v>
       </c>
-      <c r="G267" s="14">
+      <c r="G267" s="4">
         <v>0.9995</v>
       </c>
-      <c r="H267" s="14">
+      <c r="H267" s="4">
         <v>0.9847</v>
       </c>
-      <c r="I267" s="14">
+      <c r="I267" s="4">
         <v>0.8585</v>
       </c>
-      <c r="J267" s="14">
+      <c r="J267" s="4">
         <v>0.9913</v>
       </c>
     </row>
     <row r="268" spans="1:10">
-      <c r="A268" s="12" t="s">
+      <c r="A268" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B268" s="14">
+      <c r="B268" s="4">
         <v>0.9821</v>
       </c>
-      <c r="C268" s="14">
+      <c r="C268" s="4">
         <v>1</v>
       </c>
-      <c r="D268" s="14">
+      <c r="D268" s="4">
         <v>0.9814</v>
       </c>
-      <c r="E268" s="14">
+      <c r="E268" s="4">
         <v>0.9014</v>
       </c>
-      <c r="F268" s="14">
+      <c r="F268" s="4">
         <v>0.9906</v>
       </c>
-      <c r="G268" s="14">
+      <c r="G268" s="4">
         <v>0.9996</v>
       </c>
-      <c r="H268" s="14">
+      <c r="H268" s="4">
         <v>0.9859</v>
       </c>
-      <c r="I268" s="14">
+      <c r="I268" s="4">
         <v>0.8443</v>
       </c>
-      <c r="J268" s="14">
+      <c r="J268" s="4">
         <v>0.9907</v>
       </c>
     </row>
     <row r="269" spans="1:10">
-      <c r="A269" s="12" t="s">
+      <c r="A269" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B269" s="14">
+      <c r="B269" s="4">
         <v>0.9797</v>
       </c>
-      <c r="C269" s="14">
+      <c r="C269" s="4">
         <v>1</v>
       </c>
-      <c r="D269" s="14">
+      <c r="D269" s="4">
         <v>0.979</v>
       </c>
-      <c r="E269" s="14">
+      <c r="E269" s="4">
         <v>0.8909</v>
       </c>
-      <c r="F269" s="14">
+      <c r="F269" s="4">
         <v>0.9894</v>
       </c>
-      <c r="G269" s="14">
+      <c r="G269" s="4">
         <v>0.9981</v>
       </c>
-      <c r="H269" s="14">
+      <c r="H269" s="4">
         <v>0.9554</v>
       </c>
-      <c r="I269" s="14">
+      <c r="I269" s="4">
         <v>0.8302</v>
       </c>
-      <c r="J269" s="14">
+      <c r="J269" s="4">
         <v>0.9895</v>
       </c>
     </row>
     <row r="270" spans="1:10">
-      <c r="A270" s="12" t="s">
+      <c r="A270" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B270" s="14">
+      <c r="B270" s="4">
         <v>0.9763</v>
       </c>
-      <c r="C270" s="14">
+      <c r="C270" s="4">
         <v>0.9077</v>
       </c>
-      <c r="D270" s="14">
+      <c r="D270" s="4">
         <v>0.979</v>
       </c>
-      <c r="E270" s="14">
+      <c r="E270" s="4">
         <v>0.8643</v>
       </c>
-      <c r="F270" s="14">
+      <c r="F270" s="4">
         <v>0.9406</v>
       </c>
-      <c r="G270" s="14">
+      <c r="G270" s="4">
         <v>0.9944</v>
       </c>
-      <c r="H270" s="14">
+      <c r="H270" s="4">
         <v>0.8834</v>
       </c>
-      <c r="I270" s="14">
+      <c r="I270" s="4">
         <v>0.815</v>
       </c>
-      <c r="J270" s="14">
+      <c r="J270" s="4">
         <v>0.9433</v>
       </c>
     </row>
     <row r="271" spans="1:10">
-      <c r="A271" s="12" t="s">
+      <c r="A271" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B271" s="14">
+      <c r="B271" s="4">
         <v>0.9572</v>
       </c>
-      <c r="C271" s="14">
+      <c r="C271" s="4">
         <v>1</v>
       </c>
-      <c r="D271" s="14">
+      <c r="D271" s="4">
         <v>0.9555</v>
       </c>
-      <c r="E271" s="14">
+      <c r="E271" s="4">
         <v>0.8101</v>
       </c>
-      <c r="F271" s="14">
+      <c r="F271" s="4">
         <v>0.9775</v>
       </c>
-      <c r="G271" s="14">
+      <c r="G271" s="4">
         <v>0.9991</v>
       </c>
-      <c r="H271" s="14">
+      <c r="H271" s="4">
         <v>0.9728</v>
       </c>
-      <c r="I271" s="14">
+      <c r="I271" s="4">
         <v>0.7385</v>
       </c>
-      <c r="J271" s="14">
+      <c r="J271" s="4">
         <v>0.9778</v>
       </c>
     </row>
     <row r="272" spans="1:10">
-      <c r="A272" s="12" t="s">
+      <c r="A272" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B272" s="14">
+      <c r="B272" s="4">
         <v>0.9722</v>
       </c>
-      <c r="C272" s="14">
+      <c r="C272" s="4">
         <v>1</v>
       </c>
-      <c r="D272" s="14">
+      <c r="D272" s="4">
         <v>0.9711</v>
       </c>
-      <c r="E272" s="14">
+      <c r="E272" s="4">
         <v>0.8603</v>
       </c>
-      <c r="F272" s="14">
+      <c r="F272" s="4">
         <v>0.9854</v>
       </c>
-      <c r="G272" s="14">
+      <c r="G272" s="4">
         <v>0.9975</v>
       </c>
-      <c r="H272" s="14">
+      <c r="H272" s="4">
         <v>0.9428</v>
       </c>
-      <c r="I272" s="14">
+      <c r="I272" s="4">
         <v>0.7924</v>
       </c>
-      <c r="J272" s="14">
+      <c r="J272" s="4">
         <v>0.9856</v>
       </c>
     </row>
     <row r="273" spans="1:10">
-      <c r="A273" s="12" t="s">
+      <c r="A273" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B273" s="14">
+      <c r="B273" s="4">
         <v>0.9896</v>
       </c>
-      <c r="C273" s="14">
+      <c r="C273" s="4">
         <v>1</v>
       </c>
-      <c r="D273" s="14">
+      <c r="D273" s="4">
         <v>0.9892</v>
       </c>
-      <c r="E273" s="14">
+      <c r="E273" s="4">
         <v>0.938</v>
       </c>
-      <c r="F273" s="14">
+      <c r="F273" s="4">
         <v>0.9946</v>
       </c>
-      <c r="G273" s="14">
+      <c r="G273" s="4">
         <v>0.9987</v>
       </c>
-      <c r="H273" s="14">
+      <c r="H273" s="4">
         <v>0.9704</v>
       </c>
-      <c r="I273" s="14">
+      <c r="I273" s="4">
         <v>0.896</v>
       </c>
-      <c r="J273" s="14">
+      <c r="J273" s="4">
         <v>0.9946</v>
       </c>
     </row>
     <row r="274" spans="1:10">
-      <c r="A274" s="12" t="s">
+      <c r="A274" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B274" s="14">
+      <c r="B274" s="4">
         <v>0.9919</v>
       </c>
-      <c r="C274" s="14">
+      <c r="C274" s="4">
         <v>0.9692</v>
       </c>
-      <c r="D274" s="14">
+      <c r="D274" s="4">
         <v>0.9928</v>
       </c>
-      <c r="E274" s="14">
+      <c r="E274" s="4">
         <v>0.9496</v>
       </c>
-      <c r="F274" s="14">
+      <c r="F274" s="4">
         <v>0.9808</v>
       </c>
-      <c r="G274" s="14">
+      <c r="G274" s="4">
         <v>0.9987</v>
       </c>
-      <c r="H274" s="14">
+      <c r="H274" s="4">
         <v>0.9719</v>
       </c>
-      <c r="I274" s="14">
+      <c r="I274" s="4">
         <v>0.9241</v>
       </c>
-      <c r="J274" s="14">
+      <c r="J274" s="4">
         <v>0.981</v>
       </c>
     </row>
@@ -7791,7 +7801,7 @@
       </c>
     </row>
     <row r="282" spans="1:10">
-      <c r="A282" s="15" t="s">
+      <c r="A282" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B282" s="10" t="s">
@@ -7855,7 +7865,7 @@
       </c>
     </row>
     <row r="284" spans="1:10">
-      <c r="A284" s="12" t="s">
+      <c r="A284" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B284" s="4">
@@ -7887,7 +7897,7 @@
       </c>
     </row>
     <row r="285" spans="1:10">
-      <c r="A285" s="12" t="s">
+      <c r="A285" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B285" s="4">
@@ -7919,7 +7929,7 @@
       </c>
     </row>
     <row r="286" spans="1:10">
-      <c r="A286" s="12" t="s">
+      <c r="A286" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B286" s="4">
@@ -7951,7 +7961,7 @@
       </c>
     </row>
     <row r="287" spans="1:10">
-      <c r="A287" s="12" t="s">
+      <c r="A287" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B287" s="4">
@@ -7983,7 +7993,7 @@
       </c>
     </row>
     <row r="288" spans="1:10">
-      <c r="A288" s="12" t="s">
+      <c r="A288" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B288" s="4">
@@ -8015,7 +8025,7 @@
       </c>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="12" t="s">
+      <c r="A289" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B289" s="4">
@@ -8047,7 +8057,7 @@
       </c>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="12" t="s">
+      <c r="A290" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B290" s="4">
@@ -8079,7 +8089,7 @@
       </c>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="12" t="s">
+      <c r="A291" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B291" s="4">
@@ -8158,7 +8168,7 @@
       </c>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="17" t="s">
+      <c r="A298" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B298" s="10" t="s">
@@ -8222,7 +8232,7 @@
       </c>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="12" t="s">
+      <c r="A300" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B300" s="4">
@@ -8237,7 +8247,7 @@
       <c r="E300" s="4">
         <v>0.7863</v>
       </c>
-      <c r="F300" s="16">
+      <c r="F300" s="14">
         <v>0.9267</v>
       </c>
       <c r="G300" s="4">
@@ -8254,7 +8264,7 @@
       </c>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="12" t="s">
+      <c r="A301" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B301" s="4">
@@ -8286,7 +8296,7 @@
       </c>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="12" t="s">
+      <c r="A302" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B302" s="4">
@@ -8318,7 +8328,7 @@
       </c>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="12" t="s">
+      <c r="A303" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B303" s="4">
@@ -8350,7 +8360,7 @@
       </c>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="12" t="s">
+      <c r="A304" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B304" s="4">
@@ -8382,7 +8392,7 @@
       </c>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="12" t="s">
+      <c r="A305" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B305" s="4">
@@ -8414,7 +8424,7 @@
       </c>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="12" t="s">
+      <c r="A306" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B306" s="4">
@@ -8446,7 +8456,7 @@
       </c>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="12" t="s">
+      <c r="A307" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B307" s="4">
@@ -8525,7 +8535,7 @@
       </c>
     </row>
     <row r="315" spans="1:10">
-      <c r="A315" s="15" t="s">
+      <c r="A315" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B315" s="10" t="s">
@@ -8589,7 +8599,7 @@
       </c>
     </row>
     <row r="317" spans="1:10">
-      <c r="A317" s="12" t="s">
+      <c r="A317" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B317" s="4">
@@ -8610,7 +8620,7 @@
       <c r="G317" s="4">
         <v>0.9123</v>
       </c>
-      <c r="H317" s="16">
+      <c r="H317" s="14">
         <v>0.4499</v>
       </c>
       <c r="I317" s="4">
@@ -8621,7 +8631,7 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="A318" s="12" t="s">
+      <c r="A318" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B318" s="4">
@@ -8653,7 +8663,7 @@
       </c>
     </row>
     <row r="319" spans="1:10">
-      <c r="A319" s="12" t="s">
+      <c r="A319" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B319" s="4">
@@ -8685,7 +8695,7 @@
       </c>
     </row>
     <row r="320" spans="1:10">
-      <c r="A320" s="12" t="s">
+      <c r="A320" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B320" s="4">
@@ -8717,7 +8727,7 @@
       </c>
     </row>
     <row r="321" spans="1:10">
-      <c r="A321" s="12" t="s">
+      <c r="A321" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B321" s="4">
@@ -8749,7 +8759,7 @@
       </c>
     </row>
     <row r="322" spans="1:10">
-      <c r="A322" s="12" t="s">
+      <c r="A322" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B322" s="4">
@@ -8781,7 +8791,7 @@
       </c>
     </row>
     <row r="323" spans="1:10">
-      <c r="A323" s="12" t="s">
+      <c r="A323" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B323" s="4">
@@ -8813,7 +8823,7 @@
       </c>
     </row>
     <row r="324" spans="1:10">
-      <c r="A324" s="12" t="s">
+      <c r="A324" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B324" s="4">
@@ -8892,7 +8902,7 @@
       </c>
     </row>
     <row r="332" spans="1:10">
-      <c r="A332" s="15" t="s">
+      <c r="A332" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B332" s="10" t="s">
@@ -8956,7 +8966,7 @@
       </c>
     </row>
     <row r="334" spans="1:10">
-      <c r="A334" s="12" t="s">
+      <c r="A334" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B334" s="4">
@@ -8988,7 +8998,7 @@
       </c>
     </row>
     <row r="335" spans="1:10">
-      <c r="A335" s="12" t="s">
+      <c r="A335" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B335" s="4">
@@ -9020,7 +9030,7 @@
       </c>
     </row>
     <row r="336" spans="1:10">
-      <c r="A336" s="12" t="s">
+      <c r="A336" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B336" s="4">
@@ -9038,7 +9048,7 @@
       <c r="F336" s="4">
         <v>0.8049</v>
       </c>
-      <c r="G336" s="16">
+      <c r="G336" s="14">
         <v>0.8997</v>
       </c>
       <c r="H336" s="4">
@@ -9052,7 +9062,7 @@
       </c>
     </row>
     <row r="337" spans="1:10">
-      <c r="A337" s="12" t="s">
+      <c r="A337" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B337" s="4">
@@ -9084,7 +9094,7 @@
       </c>
     </row>
     <row r="338" spans="1:10">
-      <c r="A338" s="12" t="s">
+      <c r="A338" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B338" s="4">
@@ -9116,7 +9126,7 @@
       </c>
     </row>
     <row r="339" spans="1:10">
-      <c r="A339" s="12" t="s">
+      <c r="A339" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B339" s="4">
@@ -9148,7 +9158,7 @@
       </c>
     </row>
     <row r="340" spans="1:10">
-      <c r="A340" s="12" t="s">
+      <c r="A340" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B340" s="4">
@@ -9180,7 +9190,7 @@
       </c>
     </row>
     <row r="341" spans="1:10">
-      <c r="A341" s="12" t="s">
+      <c r="A341" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B341" s="4">
@@ -9259,7 +9269,7 @@
       </c>
     </row>
     <row r="349" spans="1:10">
-      <c r="A349" s="17" t="s">
+      <c r="A349" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B349" s="10" t="s">
@@ -9323,7 +9333,7 @@
       </c>
     </row>
     <row r="351" spans="1:10">
-      <c r="A351" s="12" t="s">
+      <c r="A351" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B351" s="4">
@@ -9355,7 +9365,7 @@
       </c>
     </row>
     <row r="352" spans="1:10">
-      <c r="A352" s="12" t="s">
+      <c r="A352" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B352" s="4">
@@ -9387,7 +9397,7 @@
       </c>
     </row>
     <row r="353" spans="1:10">
-      <c r="A353" s="12" t="s">
+      <c r="A353" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B353" s="4">
@@ -9419,7 +9429,7 @@
       </c>
     </row>
     <row r="354" spans="1:10">
-      <c r="A354" s="12" t="s">
+      <c r="A354" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B354" s="4">
@@ -9451,7 +9461,7 @@
       </c>
     </row>
     <row r="355" spans="1:10">
-      <c r="A355" s="12" t="s">
+      <c r="A355" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B355" s="4">
@@ -9483,7 +9493,7 @@
       </c>
     </row>
     <row r="356" spans="1:10">
-      <c r="A356" s="12" t="s">
+      <c r="A356" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B356" s="4">
@@ -9515,7 +9525,7 @@
       </c>
     </row>
     <row r="357" spans="1:10">
-      <c r="A357" s="12" t="s">
+      <c r="A357" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B357" s="4">
@@ -9547,7 +9557,7 @@
       </c>
     </row>
     <row r="358" spans="1:10">
-      <c r="A358" s="12" t="s">
+      <c r="A358" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B358" s="4">
@@ -9579,416 +9589,692 @@
       </c>
     </row>
     <row r="359" spans="1:10">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="1"/>
+      <c r="B359" s="15"/>
+      <c r="C359" s="15"/>
+      <c r="D359" s="15"/>
+      <c r="E359" s="15"/>
+      <c r="F359" s="15"/>
+      <c r="G359" s="15"/>
+      <c r="H359" s="15"/>
+      <c r="I359" s="15"/>
+      <c r="J359" s="15"/>
+    </row>
+    <row r="360" spans="1:10">
+      <c r="A360" s="1"/>
+      <c r="B360" s="15"/>
+      <c r="C360" s="15"/>
+      <c r="D360" s="15"/>
+      <c r="E360" s="15"/>
+      <c r="F360" s="15"/>
+      <c r="G360" s="15"/>
+      <c r="H360" s="15"/>
+      <c r="I360" s="15"/>
+      <c r="J360" s="15"/>
+    </row>
+    <row r="361" spans="1:10">
+      <c r="A361" s="1"/>
+      <c r="B361" s="15"/>
+      <c r="C361" s="15"/>
+      <c r="D361" s="15"/>
+      <c r="E361" s="15"/>
+      <c r="F361" s="15"/>
+      <c r="G361" s="15"/>
+      <c r="H361" s="15"/>
+      <c r="I361" s="15"/>
+      <c r="J361" s="15"/>
+    </row>
+    <row r="362" spans="1:10">
+      <c r="A362" s="1"/>
+      <c r="B362" s="15"/>
+      <c r="C362" s="15"/>
+      <c r="D362" s="15"/>
+      <c r="E362" s="15"/>
+      <c r="F362" s="15"/>
+      <c r="G362" s="15"/>
+      <c r="H362" s="15"/>
+      <c r="I362" s="15"/>
+      <c r="J362" s="15"/>
+    </row>
+    <row r="363" spans="1:10">
+      <c r="A363" s="1"/>
+      <c r="B363" s="15"/>
+      <c r="C363" s="15"/>
+      <c r="D363" s="15"/>
+      <c r="E363" s="15"/>
+      <c r="F363" s="15"/>
+      <c r="G363" s="15"/>
+      <c r="H363" s="15"/>
+      <c r="I363" s="15"/>
+      <c r="J363" s="15"/>
+    </row>
+    <row r="364" spans="1:10">
+      <c r="A364" s="1"/>
+      <c r="B364" s="15"/>
+      <c r="C364" s="15"/>
+      <c r="D364" s="15"/>
+      <c r="E364" s="15"/>
+      <c r="F364" s="15"/>
+      <c r="G364" s="15"/>
+      <c r="H364" s="15"/>
+      <c r="I364" s="15"/>
+      <c r="J364" s="15"/>
+    </row>
+    <row r="365" spans="1:10">
+      <c r="A365" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B359" s="9">
+      <c r="B365" s="9">
         <v>0.655</v>
       </c>
-      <c r="C359" s="9">
+      <c r="C365" s="9">
         <v>0.5476</v>
       </c>
-      <c r="D359" s="9">
+      <c r="D365" s="9">
         <v>0.6564</v>
       </c>
-      <c r="E359" s="9">
+      <c r="E365" s="9">
         <v>0.4036</v>
       </c>
-      <c r="F359" s="9">
+      <c r="F365" s="9">
         <v>0.5679</v>
       </c>
-      <c r="G359" s="9">
+      <c r="G365" s="9">
         <v>0.6493</v>
       </c>
-      <c r="H359" s="9">
+      <c r="H365" s="9">
         <v>0.031</v>
       </c>
-      <c r="I359" s="9">
+      <c r="I365" s="9">
         <v>0.5046</v>
       </c>
-      <c r="J359" s="9">
+      <c r="J365" s="9">
         <v>0.602</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
-      <c r="A365" s="17" t="s">
+    <row r="371" spans="1:10">
+      <c r="A371" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B365" s="10" t="s">
+      <c r="B371" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C365" s="10" t="s">
+      <c r="C371" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D365" s="10" t="s">
+      <c r="D371" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E365" s="10" t="s">
+      <c r="E371" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F365" s="10" t="s">
+      <c r="F371" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G365" s="10" t="s">
+      <c r="G371" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H365" s="10" t="s">
+      <c r="H371" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I365" s="10" t="s">
+      <c r="I371" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J365" s="10" t="s">
+      <c r="J371" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
-      <c r="A366" s="11" t="s">
+    <row r="372" spans="1:10">
+      <c r="A372" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B366" s="4">
+      <c r="B372" s="4">
         <v>0.972</v>
-      </c>
-      <c r="C366" s="4">
-        <v>0.7333</v>
-      </c>
-      <c r="D366" s="4">
-        <v>0.985</v>
-      </c>
-      <c r="E366" s="4">
-        <v>0.8665</v>
-      </c>
-      <c r="F366" s="4">
-        <v>0.8386</v>
-      </c>
-      <c r="G366" s="4">
-        <v>0.9804</v>
-      </c>
-      <c r="H366" s="4">
-        <v>0.9015</v>
-      </c>
-      <c r="I366" s="4">
-        <v>0.9277</v>
-      </c>
-      <c r="J366" s="4">
-        <v>0.8592</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10">
-      <c r="A367" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B367" s="4">
-        <v>0.9486</v>
-      </c>
-      <c r="C367" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="D367" s="4">
-        <v>0.9552</v>
-      </c>
-      <c r="E367" s="4">
-        <v>0.811</v>
-      </c>
-      <c r="F367" s="4">
-        <v>0.8622</v>
-      </c>
-      <c r="G367" s="4">
-        <v>0.9785</v>
-      </c>
-      <c r="H367" s="4">
-        <v>0.8556</v>
-      </c>
-      <c r="I367" s="4">
-        <v>0.7812</v>
-      </c>
-      <c r="J367" s="4">
-        <v>0.8776</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10">
-      <c r="A368" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B368" s="4">
-        <v>0.9298</v>
-      </c>
-      <c r="C368" s="4">
-        <v>0.8333</v>
-      </c>
-      <c r="D368" s="4">
-        <v>0.9354</v>
-      </c>
-      <c r="E368" s="4">
-        <v>0.7778</v>
-      </c>
-      <c r="F368" s="4">
-        <v>0.8739</v>
-      </c>
-      <c r="G368" s="4">
-        <v>0.9651</v>
-      </c>
-      <c r="H368" s="4">
-        <v>0.8209</v>
-      </c>
-      <c r="I368" s="4">
-        <v>0.7528</v>
-      </c>
-      <c r="J368" s="4">
-        <v>0.8843</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10">
-      <c r="A369" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B369" s="4">
-        <v>0.9392</v>
-      </c>
-      <c r="C369" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="D369" s="4">
-        <v>0.9405</v>
-      </c>
-      <c r="E369" s="4">
-        <v>0.8082</v>
-      </c>
-      <c r="F369" s="4">
-        <v>0.9125</v>
-      </c>
-      <c r="G369" s="4">
-        <v>0.9726</v>
-      </c>
-      <c r="H369" s="4">
-        <v>0.7667</v>
-      </c>
-      <c r="I369" s="4">
-        <v>0.767</v>
-      </c>
-      <c r="J369" s="4">
-        <v>0.9202</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10">
-      <c r="A370" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B370" s="4">
-        <v>0.9346</v>
-      </c>
-      <c r="C370" s="4">
-        <v>0.7667</v>
-      </c>
-      <c r="D370" s="4">
-        <v>0.9455</v>
-      </c>
-      <c r="E370" s="4">
-        <v>0.7646</v>
-      </c>
-      <c r="F370" s="4">
-        <v>0.8317</v>
-      </c>
-      <c r="G370" s="4">
-        <v>0.901</v>
-      </c>
-      <c r="H370" s="4">
-        <v>0.7202</v>
-      </c>
-      <c r="I370" s="4">
-        <v>0.7342</v>
-      </c>
-      <c r="J370" s="4">
-        <v>0.8561</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10">
-      <c r="A371" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B371" s="4">
-        <v>0.9204</v>
-      </c>
-      <c r="C371" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="D371" s="4">
-        <v>0.9204</v>
-      </c>
-      <c r="E371" s="4">
-        <v>0.7654</v>
-      </c>
-      <c r="F371" s="4">
-        <v>0.9037</v>
-      </c>
-      <c r="G371" s="4">
-        <v>0.9744</v>
-      </c>
-      <c r="H371" s="4">
-        <v>0.7761</v>
-      </c>
-      <c r="I371" s="4">
-        <v>0.7102</v>
-      </c>
-      <c r="J371" s="4">
-        <v>0.9102</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10">
-      <c r="A372" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B372" s="4">
-        <v>0.4743</v>
       </c>
       <c r="C372" s="4">
         <v>0.7333</v>
       </c>
       <c r="D372" s="4">
+        <v>0.985</v>
+      </c>
+      <c r="E372" s="4">
+        <v>0.8665</v>
+      </c>
+      <c r="F372" s="4">
+        <v>0.8386</v>
+      </c>
+      <c r="G372" s="4">
+        <v>0.9804</v>
+      </c>
+      <c r="H372" s="4">
+        <v>0.9015</v>
+      </c>
+      <c r="I372" s="4">
+        <v>0.9277</v>
+      </c>
+      <c r="J372" s="4">
+        <v>0.8592</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10">
+      <c r="A373" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B373" s="4">
+        <v>0.9486</v>
+      </c>
+      <c r="C373" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D373" s="4">
+        <v>0.9552</v>
+      </c>
+      <c r="E373" s="4">
+        <v>0.811</v>
+      </c>
+      <c r="F373" s="4">
+        <v>0.8622</v>
+      </c>
+      <c r="G373" s="4">
+        <v>0.9785</v>
+      </c>
+      <c r="H373" s="4">
+        <v>0.8556</v>
+      </c>
+      <c r="I373" s="4">
+        <v>0.7812</v>
+      </c>
+      <c r="J373" s="4">
+        <v>0.8776</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10">
+      <c r="A374" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B374" s="4">
+        <v>0.9298</v>
+      </c>
+      <c r="C374" s="4">
+        <v>0.8333</v>
+      </c>
+      <c r="D374" s="4">
+        <v>0.9354</v>
+      </c>
+      <c r="E374" s="4">
+        <v>0.7778</v>
+      </c>
+      <c r="F374" s="4">
+        <v>0.8739</v>
+      </c>
+      <c r="G374" s="4">
+        <v>0.9651</v>
+      </c>
+      <c r="H374" s="4">
+        <v>0.8209</v>
+      </c>
+      <c r="I374" s="4">
+        <v>0.7528</v>
+      </c>
+      <c r="J374" s="4">
+        <v>0.8843</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10">
+      <c r="A375" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B375" s="4">
+        <v>0.9392</v>
+      </c>
+      <c r="C375" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D375" s="4">
+        <v>0.9405</v>
+      </c>
+      <c r="E375" s="4">
+        <v>0.8082</v>
+      </c>
+      <c r="F375" s="4">
+        <v>0.9125</v>
+      </c>
+      <c r="G375" s="4">
+        <v>0.9726</v>
+      </c>
+      <c r="H375" s="4">
+        <v>0.7667</v>
+      </c>
+      <c r="I375" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="J375" s="4">
+        <v>0.9202</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10">
+      <c r="A376" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B376" s="4">
+        <v>0.9346</v>
+      </c>
+      <c r="C376" s="4">
+        <v>0.7667</v>
+      </c>
+      <c r="D376" s="4">
+        <v>0.9455</v>
+      </c>
+      <c r="E376" s="4">
+        <v>0.7646</v>
+      </c>
+      <c r="F376" s="4">
+        <v>0.8317</v>
+      </c>
+      <c r="G376" s="4">
+        <v>0.901</v>
+      </c>
+      <c r="H376" s="4">
+        <v>0.7202</v>
+      </c>
+      <c r="I376" s="4">
+        <v>0.7342</v>
+      </c>
+      <c r="J376" s="4">
+        <v>0.8561</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10">
+      <c r="A377" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B377" s="4">
+        <v>0.9204</v>
+      </c>
+      <c r="C377" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D377" s="4">
+        <v>0.9204</v>
+      </c>
+      <c r="E377" s="4">
+        <v>0.7654</v>
+      </c>
+      <c r="F377" s="4">
+        <v>0.9037</v>
+      </c>
+      <c r="G377" s="4">
+        <v>0.9744</v>
+      </c>
+      <c r="H377" s="4">
+        <v>0.7761</v>
+      </c>
+      <c r="I377" s="4">
+        <v>0.7102</v>
+      </c>
+      <c r="J377" s="4">
+        <v>0.9102</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10">
+      <c r="A378" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B378" s="4">
+        <v>0.4743</v>
+      </c>
+      <c r="C378" s="4">
+        <v>0.7333</v>
+      </c>
+      <c r="D378" s="4">
         <v>0.4532</v>
       </c>
-      <c r="E372" s="4">
+      <c r="E378" s="4">
         <v>0.4037</v>
       </c>
-      <c r="F372" s="4">
+      <c r="F378" s="4">
         <v>0.518</v>
       </c>
-      <c r="G372" s="4">
+      <c r="G378" s="4">
         <v>0.785</v>
       </c>
-      <c r="H372" s="4">
+      <c r="H378" s="4">
         <v>0.6749</v>
       </c>
-      <c r="I372" s="4">
+      <c r="I378" s="4">
         <v>0.6166</v>
       </c>
-      <c r="J372" s="4">
+      <c r="J378" s="4">
         <v>0.5933</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
-      <c r="A373" s="12" t="s">
+    <row r="379" spans="1:10">
+      <c r="A379" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B373" s="4">
+      <c r="B379" s="4">
         <v>0.972</v>
       </c>
-      <c r="C373" s="4">
+      <c r="C379" s="4">
         <v>0.6</v>
       </c>
-      <c r="D373" s="4">
+      <c r="D379" s="4">
         <v>0.995</v>
       </c>
-      <c r="E373" s="4">
+      <c r="E379" s="4">
         <v>0.8426</v>
       </c>
-      <c r="F373" s="4">
+      <c r="F379" s="4">
         <v>0.7596</v>
       </c>
-      <c r="G373" s="4">
+      <c r="G379" s="4">
         <v>0.8518</v>
       </c>
-      <c r="H373" s="4">
+      <c r="H379" s="4">
         <v>0.7136</v>
       </c>
-      <c r="I373" s="4">
+      <c r="I379" s="4">
         <v>0.9546</v>
       </c>
-      <c r="J373" s="4">
+      <c r="J379" s="4">
         <v>0.7975</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
-      <c r="A374" s="12" t="s">
+    <row r="380" spans="1:10">
+      <c r="A380" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B374" s="4">
+      <c r="B380" s="4">
         <v>0.9627</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C380" s="4">
         <v>0.4667</v>
       </c>
-      <c r="D374" s="4">
+      <c r="D380" s="4">
         <v>0.995</v>
       </c>
-      <c r="E374" s="4">
+      <c r="E380" s="4">
         <v>0.7902</v>
       </c>
-      <c r="F374" s="4">
+      <c r="F380" s="4">
         <v>0.675</v>
       </c>
-      <c r="G374" s="4">
+      <c r="G380" s="4">
         <v>0.8555</v>
       </c>
-      <c r="H374" s="4">
+      <c r="H380" s="4">
         <v>0.6927</v>
       </c>
-      <c r="I374" s="4">
+      <c r="I380" s="4">
         <v>0.9498</v>
       </c>
-      <c r="J374" s="4">
+      <c r="J380" s="4">
         <v>0.7308</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
-      <c r="A375" s="1" t="s">
+    <row r="381" spans="1:10">
+      <c r="A381" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B381" s="16">
+        <v>0.972</v>
+      </c>
+      <c r="C381" s="16">
+        <v>0.5667</v>
+      </c>
+      <c r="D381" s="16">
+        <v>0.995</v>
+      </c>
+      <c r="E381" s="16">
+        <v>0.805</v>
+      </c>
+      <c r="F381" s="16">
+        <v>0.6655</v>
+      </c>
+      <c r="G381" s="16">
+        <v>0.9623</v>
+      </c>
+      <c r="H381" s="16">
+        <v>0.7536</v>
+      </c>
+      <c r="I381" s="16">
+        <v>0.863</v>
+      </c>
+      <c r="J381" s="16">
+        <v>0.7808</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10">
+      <c r="A382" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B382" s="16">
+        <v>0.958</v>
+      </c>
+      <c r="C382" s="16">
+        <v>0.5333</v>
+      </c>
+      <c r="D382" s="16">
+        <v>0.9851</v>
+      </c>
+      <c r="E382" s="16">
+        <v>0.7927</v>
+      </c>
+      <c r="F382" s="16">
+        <v>0.719</v>
+      </c>
+      <c r="G382" s="16">
+        <v>0.9022</v>
+      </c>
+      <c r="H382" s="16">
+        <v>0.7513</v>
+      </c>
+      <c r="I382" s="16">
+        <v>0.8854</v>
+      </c>
+      <c r="J382" s="16">
+        <v>0.7592</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10">
+      <c r="A383" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B383" s="16">
+        <v>0.9673</v>
+      </c>
+      <c r="C383" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="D383" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="E383" s="16">
+        <v>0.8271</v>
+      </c>
+      <c r="F383" s="16">
+        <v>0.757</v>
+      </c>
+      <c r="G383" s="16">
+        <v>0.9829</v>
+      </c>
+      <c r="H383" s="16">
+        <v>0.8983</v>
+      </c>
+      <c r="I383" s="16">
+        <v>0.9296</v>
+      </c>
+      <c r="J383" s="16">
+        <v>0.795</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10">
+      <c r="A384" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B384" s="16">
+        <v>0.9673</v>
+      </c>
+      <c r="C384" s="16">
+        <v>0.5333</v>
+      </c>
+      <c r="D384" s="16">
+        <v>0.995</v>
+      </c>
+      <c r="E384" s="16">
+        <v>0.8214</v>
+      </c>
+      <c r="F384" s="16">
+        <v>0.7229</v>
+      </c>
+      <c r="G384" s="16">
+        <v>0.8334</v>
+      </c>
+      <c r="H384" s="16">
+        <v>0.7093</v>
+      </c>
+      <c r="I384" s="16">
+        <v>0.9521</v>
+      </c>
+      <c r="J384" s="16">
+        <v>0.7642</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10">
+      <c r="A385" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B385" s="16">
+        <v>0.972</v>
+      </c>
+      <c r="C385" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="D385" s="16">
+        <v>0.995</v>
+      </c>
+      <c r="E385" s="16">
+        <v>0.8426</v>
+      </c>
+      <c r="F385" s="16">
+        <v>0.7596</v>
+      </c>
+      <c r="G385" s="16">
+        <v>0.9867</v>
+      </c>
+      <c r="H385" s="16">
+        <v>0.9067</v>
+      </c>
+      <c r="I385" s="16">
+        <v>0.9546</v>
+      </c>
+      <c r="J385" s="16">
+        <v>0.7975</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10">
+      <c r="A386" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B386" s="16">
+        <v>0.9766</v>
+      </c>
+      <c r="C386" s="16">
+        <v>0.7333</v>
+      </c>
+      <c r="D386" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="E386" s="16">
+        <v>0.8795</v>
+      </c>
+      <c r="F386" s="16">
+        <v>0.8416</v>
+      </c>
+      <c r="G386" s="16">
+        <v>0.8635</v>
+      </c>
+      <c r="H386" s="16">
+        <v>0.7344</v>
+      </c>
+      <c r="I386" s="16">
+        <v>0.9343</v>
+      </c>
+      <c r="J386" s="16">
+        <v>0.8617</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10">
+      <c r="A387" s="1"/>
+      <c r="B387" s="15"/>
+      <c r="C387" s="15"/>
+      <c r="D387" s="15"/>
+      <c r="E387" s="15"/>
+      <c r="F387" s="15"/>
+      <c r="G387" s="15"/>
+      <c r="H387" s="15"/>
+      <c r="I387" s="15"/>
+      <c r="J387" s="15"/>
+    </row>
+    <row r="388" spans="1:10">
+      <c r="A388" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B375" s="9">
+      <c r="B388" s="9">
         <v>0.9016</v>
       </c>
-      <c r="C375" s="9">
+      <c r="C388" s="9">
         <v>0.9</v>
       </c>
-      <c r="D375" s="9">
+      <c r="D388" s="9">
         <v>0.9006</v>
       </c>
-      <c r="E375" s="9">
+      <c r="E388" s="9">
         <v>0.7421</v>
       </c>
-      <c r="F375" s="9">
+      <c r="F388" s="9">
         <v>0.8939</v>
       </c>
-      <c r="G375" s="9">
+      <c r="G388" s="9">
         <v>0.9725</v>
       </c>
-      <c r="H375" s="9">
+      <c r="H388" s="9">
         <v>0.8144</v>
       </c>
-      <c r="I375" s="9">
+      <c r="I388" s="9">
         <v>0.6978</v>
       </c>
-      <c r="J375" s="9">
+      <c r="J388" s="9">
         <v>0.9003</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
         <v>30</v>
       </c>
     </row>

--- a/all_results.xlsx
+++ b/all_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="56">
   <si>
     <t>Wine1</t>
   </si>
@@ -190,6 +190,12 @@
   <si>
     <t>KmeansSMOTEBoostClassifier</t>
   </si>
+  <si>
+    <t>Glass2</t>
+  </si>
+  <si>
+    <t>Glass3</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +207,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,13 +241,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -732,13 +731,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,122 +749,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,8 +900,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1428,16 +1428,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:J391"/>
+  <dimension ref="A4:J439"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="N364" sqref="N364"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="L153" sqref="L153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="57.1090909090909" customWidth="1"/>
-    <col min="2" max="2" width="11.3363636363636"/>
+    <col min="1" max="1" width="57.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="11.3333333333333"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:10">
@@ -10031,63 +10031,63 @@
       <c r="A381" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B381" s="16">
+      <c r="B381" s="4">
         <v>0.972</v>
       </c>
-      <c r="C381" s="16">
+      <c r="C381" s="4">
         <v>0.5667</v>
       </c>
-      <c r="D381" s="16">
+      <c r="D381" s="4">
         <v>0.995</v>
       </c>
-      <c r="E381" s="16">
+      <c r="E381" s="4">
         <v>0.805</v>
       </c>
-      <c r="F381" s="16">
+      <c r="F381" s="4">
         <v>0.6655</v>
       </c>
-      <c r="G381" s="16">
+      <c r="G381" s="4">
         <v>0.9623</v>
       </c>
-      <c r="H381" s="16">
+      <c r="H381" s="4">
         <v>0.7536</v>
       </c>
-      <c r="I381" s="16">
+      <c r="I381" s="4">
         <v>0.863</v>
       </c>
-      <c r="J381" s="16">
+      <c r="J381" s="4">
         <v>0.7808</v>
       </c>
     </row>
     <row r="382" spans="1:10">
-      <c r="A382" s="17" t="s">
+      <c r="A382" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B382" s="16">
+      <c r="B382" s="4">
         <v>0.958</v>
       </c>
-      <c r="C382" s="16">
+      <c r="C382" s="4">
         <v>0.5333</v>
       </c>
-      <c r="D382" s="16">
+      <c r="D382" s="4">
         <v>0.9851</v>
       </c>
-      <c r="E382" s="16">
+      <c r="E382" s="4">
         <v>0.7927</v>
       </c>
-      <c r="F382" s="16">
+      <c r="F382" s="4">
         <v>0.719</v>
       </c>
-      <c r="G382" s="16">
+      <c r="G382" s="4">
         <v>0.9022</v>
       </c>
-      <c r="H382" s="16">
+      <c r="H382" s="4">
         <v>0.7513</v>
       </c>
-      <c r="I382" s="16">
+      <c r="I382" s="4">
         <v>0.8854</v>
       </c>
-      <c r="J382" s="16">
+      <c r="J382" s="4">
         <v>0.7592</v>
       </c>
     </row>
@@ -10095,31 +10095,31 @@
       <c r="A383" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B383" s="16">
+      <c r="B383" s="4">
         <v>0.9673</v>
       </c>
-      <c r="C383" s="16">
+      <c r="C383" s="4">
         <v>0.6</v>
       </c>
-      <c r="D383" s="16">
+      <c r="D383" s="4">
         <v>0.99</v>
       </c>
-      <c r="E383" s="16">
+      <c r="E383" s="4">
         <v>0.8271</v>
       </c>
-      <c r="F383" s="16">
+      <c r="F383" s="4">
         <v>0.757</v>
       </c>
-      <c r="G383" s="16">
+      <c r="G383" s="4">
         <v>0.9829</v>
       </c>
-      <c r="H383" s="16">
+      <c r="H383" s="4">
         <v>0.8983</v>
       </c>
-      <c r="I383" s="16">
+      <c r="I383" s="4">
         <v>0.9296</v>
       </c>
-      <c r="J383" s="16">
+      <c r="J383" s="4">
         <v>0.795</v>
       </c>
     </row>
@@ -10127,31 +10127,31 @@
       <c r="A384" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B384" s="16">
+      <c r="B384" s="4">
         <v>0.9673</v>
       </c>
-      <c r="C384" s="16">
+      <c r="C384" s="4">
         <v>0.5333</v>
       </c>
-      <c r="D384" s="16">
+      <c r="D384" s="4">
         <v>0.995</v>
       </c>
-      <c r="E384" s="16">
+      <c r="E384" s="4">
         <v>0.8214</v>
       </c>
-      <c r="F384" s="16">
+      <c r="F384" s="4">
         <v>0.7229</v>
       </c>
-      <c r="G384" s="16">
+      <c r="G384" s="4">
         <v>0.8334</v>
       </c>
-      <c r="H384" s="16">
+      <c r="H384" s="4">
         <v>0.7093</v>
       </c>
-      <c r="I384" s="16">
+      <c r="I384" s="4">
         <v>0.9521</v>
       </c>
-      <c r="J384" s="16">
+      <c r="J384" s="4">
         <v>0.7642</v>
       </c>
     </row>
@@ -10159,31 +10159,31 @@
       <c r="A385" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B385" s="16">
+      <c r="B385" s="4">
         <v>0.972</v>
       </c>
-      <c r="C385" s="16">
+      <c r="C385" s="4">
         <v>0.6</v>
       </c>
-      <c r="D385" s="16">
+      <c r="D385" s="4">
         <v>0.995</v>
       </c>
-      <c r="E385" s="16">
+      <c r="E385" s="4">
         <v>0.8426</v>
       </c>
-      <c r="F385" s="16">
+      <c r="F385" s="4">
         <v>0.7596</v>
       </c>
-      <c r="G385" s="16">
+      <c r="G385" s="4">
         <v>0.9867</v>
       </c>
-      <c r="H385" s="16">
+      <c r="H385" s="4">
         <v>0.9067</v>
       </c>
-      <c r="I385" s="16">
+      <c r="I385" s="4">
         <v>0.9546</v>
       </c>
-      <c r="J385" s="16">
+      <c r="J385" s="4">
         <v>0.7975</v>
       </c>
     </row>
@@ -10191,31 +10191,31 @@
       <c r="A386" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B386" s="16">
+      <c r="B386" s="4">
         <v>0.9766</v>
       </c>
-      <c r="C386" s="16">
+      <c r="C386" s="4">
         <v>0.7333</v>
       </c>
-      <c r="D386" s="16">
+      <c r="D386" s="4">
         <v>0.99</v>
       </c>
-      <c r="E386" s="16">
+      <c r="E386" s="4">
         <v>0.8795</v>
       </c>
-      <c r="F386" s="16">
+      <c r="F386" s="4">
         <v>0.8416</v>
       </c>
-      <c r="G386" s="16">
+      <c r="G386" s="4">
         <v>0.8635</v>
       </c>
-      <c r="H386" s="16">
+      <c r="H386" s="4">
         <v>0.7344</v>
       </c>
-      <c r="I386" s="16">
+      <c r="I386" s="4">
         <v>0.9343</v>
       </c>
-      <c r="J386" s="16">
+      <c r="J386" s="4">
         <v>0.8617</v>
       </c>
     </row>
@@ -10263,19 +10263,1260 @@
         <v>0.9003</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
+    <row r="389" spans="1:10">
+      <c r="A389" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
+      <c r="G389" s="1"/>
+      <c r="H389" s="1"/>
+      <c r="I389" s="1"/>
+      <c r="J389" s="1"/>
+    </row>
+    <row r="390" spans="1:10">
+      <c r="A390" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+      <c r="G390" s="1"/>
+      <c r="H390" s="1"/>
+      <c r="I390" s="1"/>
+      <c r="J390" s="1"/>
+    </row>
+    <row r="391" spans="1:10">
+      <c r="A391" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="B391" s="1">
+        <v>0.9625</v>
+      </c>
+      <c r="C391" s="1">
+        <v>0.5666</v>
+      </c>
+      <c r="D391" s="1">
+        <v>0.985</v>
+      </c>
+      <c r="E391" s="1">
+        <v>0.7615</v>
+      </c>
+      <c r="F391" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G391" s="1">
+        <v>0.9792</v>
+      </c>
+      <c r="H391" s="1">
+        <v>0.8452</v>
+      </c>
+      <c r="I391" s="1">
+        <v>0.788</v>
+      </c>
+      <c r="J391" s="1">
+        <v>0.7758</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10">
+      <c r="A395" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B395" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D395" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E395" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F395" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G395" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H395" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I395" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J395" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10">
+      <c r="A396" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B396" s="5">
+        <v>0.9579</v>
+      </c>
+      <c r="C396" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D396" s="5">
+        <v>0.9838</v>
+      </c>
+      <c r="E396" s="5">
+        <v>0.9031</v>
+      </c>
+      <c r="F396" s="5">
+        <v>0.8812</v>
+      </c>
+      <c r="G396" s="5">
+        <v>0.9685</v>
+      </c>
+      <c r="H396" s="5">
+        <v>0.9157</v>
+      </c>
+      <c r="I396" s="5">
+        <v>0.9393</v>
+      </c>
+      <c r="J396" s="5">
+        <v>0.8919</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10">
+      <c r="A397" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B397" s="5">
+        <v>0.9626</v>
+      </c>
+      <c r="C397" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D397" s="5">
+        <v>0.973</v>
+      </c>
+      <c r="E397" s="5">
+        <v>0.9236</v>
+      </c>
+      <c r="F397" s="5">
+        <v>0.9348</v>
+      </c>
+      <c r="G397" s="5">
+        <v>0.9685</v>
+      </c>
+      <c r="H397" s="5">
+        <v>0.9389</v>
+      </c>
+      <c r="I397" s="5">
+        <v>0.9181</v>
+      </c>
+      <c r="J397" s="5">
+        <v>0.9365</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10">
+      <c r="A398" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="5">
+        <v>0.9626</v>
+      </c>
+      <c r="C398" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D398" s="5">
+        <v>0.973</v>
+      </c>
+      <c r="E398" s="5">
+        <v>0.9236</v>
+      </c>
+      <c r="F398" s="5">
+        <v>0.9348</v>
+      </c>
+      <c r="G398" s="5">
+        <v>0.959</v>
+      </c>
+      <c r="H398" s="5">
+        <v>0.9224</v>
+      </c>
+      <c r="I398" s="5">
+        <v>0.9181</v>
+      </c>
+      <c r="J398" s="5">
+        <v>0.9365</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10">
+      <c r="A399" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B399" s="5">
+        <v>0.9673</v>
+      </c>
+      <c r="C399" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D399" s="5">
+        <v>0.9784</v>
+      </c>
+      <c r="E399" s="5">
+        <v>0.9326</v>
+      </c>
+      <c r="F399" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="G399" s="5">
+        <v>0.9653</v>
+      </c>
+      <c r="H399" s="5">
+        <v>0.9293</v>
+      </c>
+      <c r="I399" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="J399" s="5">
+        <v>0.9392</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10">
+      <c r="A400" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B400" s="5">
+        <v>0.9581</v>
+      </c>
+      <c r="C400" s="5">
+        <v>0.8667</v>
+      </c>
+      <c r="D400" s="5">
+        <v>0.973</v>
+      </c>
+      <c r="E400" s="5">
+        <v>0.9158</v>
+      </c>
+      <c r="F400" s="5">
+        <v>0.9178</v>
+      </c>
+      <c r="G400" s="5">
+        <v>0.9324</v>
+      </c>
+      <c r="H400" s="5">
+        <v>0.8737</v>
+      </c>
+      <c r="I400" s="5">
+        <v>0.9153</v>
+      </c>
+      <c r="J400" s="5">
+        <v>0.9198</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="A401" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B401" s="5">
+        <v>0.9534</v>
+      </c>
+      <c r="C401" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D401" s="5">
+        <v>0.9622</v>
+      </c>
+      <c r="E401" s="5">
+        <v>0.9103</v>
+      </c>
+      <c r="F401" s="5">
+        <v>0.9296</v>
+      </c>
+      <c r="G401" s="5">
+        <v>0.9689</v>
+      </c>
+      <c r="H401" s="5">
+        <v>0.9257</v>
+      </c>
+      <c r="I401" s="5">
+        <v>0.8997</v>
+      </c>
+      <c r="J401" s="5">
+        <v>0.9311</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
+      <c r="A402" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B402" s="5">
+        <v>0.8643</v>
+      </c>
+      <c r="C402" s="5">
+        <v>0.9333</v>
+      </c>
+      <c r="D402" s="5">
+        <v>0.8541</v>
+      </c>
+      <c r="E402" s="5">
+        <v>0.7997</v>
+      </c>
+      <c r="F402" s="5">
+        <v>0.8873</v>
+      </c>
+      <c r="G402" s="5">
+        <v>0.9151</v>
+      </c>
+      <c r="H402" s="5">
+        <v>0.681</v>
+      </c>
+      <c r="I402" s="5">
+        <v>0.7891</v>
+      </c>
+      <c r="J402" s="5">
+        <v>0.8937</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10">
+      <c r="A403" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B403" s="5">
+        <v>0.9673</v>
+      </c>
+      <c r="C403" s="5">
+        <v>0.7933</v>
+      </c>
+      <c r="D403" s="5">
+        <v>0.9946</v>
+      </c>
+      <c r="E403" s="5">
+        <v>0.9205</v>
+      </c>
+      <c r="F403" s="5">
+        <v>0.883</v>
+      </c>
+      <c r="G403" s="5">
+        <v>0.964</v>
+      </c>
+      <c r="H403" s="5">
+        <v>0.9236</v>
+      </c>
+      <c r="I403" s="5">
+        <v>0.9679</v>
+      </c>
+      <c r="J403" s="5">
+        <v>0.894</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10">
+      <c r="A404" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B404" s="5">
+        <v>0.9627</v>
+      </c>
+      <c r="C404" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="D404" s="5">
+        <v>0.9946</v>
+      </c>
+      <c r="E404" s="5">
+        <v>0.9101</v>
+      </c>
+      <c r="F404" s="5">
+        <v>0.8655</v>
+      </c>
+      <c r="G404" s="5">
+        <v>0.964</v>
+      </c>
+      <c r="H404" s="5">
+        <v>0.9189</v>
+      </c>
+      <c r="I404" s="5">
+        <v>0.9652</v>
+      </c>
+      <c r="J404" s="5">
+        <v>0.8773</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10">
+      <c r="A405" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B405" s="5">
+        <v>0.9581</v>
+      </c>
+      <c r="C405" s="5">
+        <v>0.8667</v>
+      </c>
+      <c r="D405" s="5">
+        <v>0.973</v>
+      </c>
+      <c r="E405" s="5">
+        <v>0.919</v>
+      </c>
+      <c r="F405" s="5">
+        <v>0.9169</v>
+      </c>
+      <c r="G405" s="5">
+        <v>0.9748</v>
+      </c>
+      <c r="H405" s="5">
+        <v>0.9296</v>
+      </c>
+      <c r="I405" s="5">
+        <v>0.9223</v>
+      </c>
+      <c r="J405" s="5">
+        <v>0.9198</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B406" s="5">
+        <v>0.9532</v>
+      </c>
+      <c r="C406" s="5">
+        <v>0.7933</v>
+      </c>
+      <c r="D406" s="5">
+        <v>0.9784</v>
+      </c>
+      <c r="E406" s="5">
+        <v>0.8971</v>
+      </c>
+      <c r="F406" s="5">
+        <v>0.8803</v>
+      </c>
+      <c r="G406" s="5">
+        <v>0.9509</v>
+      </c>
+      <c r="H406" s="5">
+        <v>0.8892</v>
+      </c>
+      <c r="I406" s="5">
+        <v>0.914</v>
+      </c>
+      <c r="J406" s="5">
+        <v>0.8859</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="A407" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B407" s="5">
+        <v>0.9627</v>
+      </c>
+      <c r="C407" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D407" s="5">
+        <v>0.9892</v>
+      </c>
+      <c r="E407" s="5">
+        <v>0.9121</v>
+      </c>
+      <c r="F407" s="5">
+        <v>0.8839</v>
+      </c>
+      <c r="G407" s="5">
+        <v>0.9477</v>
+      </c>
+      <c r="H407" s="5">
+        <v>0.8901</v>
+      </c>
+      <c r="I407" s="5">
+        <v>0.9512</v>
+      </c>
+      <c r="J407" s="5">
+        <v>0.8946</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10">
+      <c r="A408" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B408" s="5">
+        <v>0.9579</v>
+      </c>
+      <c r="C408" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D408" s="5">
+        <v>0.9838</v>
+      </c>
+      <c r="E408" s="5">
+        <v>0.9031</v>
+      </c>
+      <c r="F408" s="5">
+        <v>0.8812</v>
+      </c>
+      <c r="G408" s="5">
+        <v>0.9586</v>
+      </c>
+      <c r="H408" s="5">
+        <v>0.9094</v>
+      </c>
+      <c r="I408" s="5">
+        <v>0.9393</v>
+      </c>
+      <c r="J408" s="5">
+        <v>0.8919</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10">
+      <c r="A409" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B409" s="5">
+        <v>0.9626</v>
+      </c>
+      <c r="C409" s="5">
+        <v>0.8333</v>
+      </c>
+      <c r="D409" s="5">
+        <v>0.9838</v>
+      </c>
+      <c r="E409" s="5">
+        <v>0.9135</v>
+      </c>
+      <c r="F409" s="5">
+        <v>0.8986</v>
+      </c>
+      <c r="G409" s="5">
+        <v>0.9446</v>
+      </c>
+      <c r="H409" s="5">
+        <v>0.8845</v>
+      </c>
+      <c r="I409" s="5">
+        <v>0.9419</v>
+      </c>
+      <c r="J409" s="5">
+        <v>0.9086</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10">
+      <c r="A410" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B410" s="5">
+        <v>0.9627</v>
+      </c>
+      <c r="C410" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="D410" s="5">
+        <v>0.9946</v>
+      </c>
+      <c r="E410" s="5">
+        <v>0.9125</v>
+      </c>
+      <c r="F410" s="5">
+        <v>0.8681</v>
+      </c>
+      <c r="G410" s="5">
+        <v>0.9663</v>
+      </c>
+      <c r="H410" s="5">
+        <v>0.9121</v>
+      </c>
+      <c r="I410" s="5">
+        <v>0.9651</v>
+      </c>
+      <c r="J410" s="5">
+        <v>0.8773</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10">
+      <c r="A411" s="1"/>
+      <c r="B411" s="9"/>
+      <c r="C411" s="9"/>
+      <c r="D411" s="9"/>
+      <c r="E411" s="9"/>
+      <c r="F411" s="9"/>
+      <c r="G411" s="9"/>
+      <c r="H411" s="9"/>
+      <c r="I411" s="9"/>
+      <c r="J411" s="9"/>
+    </row>
+    <row r="412" spans="1:10">
+      <c r="A412" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B412" s="9">
+        <v>0.9581</v>
+      </c>
+      <c r="C412" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D412" s="9">
+        <v>0.9837</v>
+      </c>
+      <c r="E412" s="9">
+        <v>0.9058</v>
+      </c>
+      <c r="F412" s="9">
+        <v>0.8809</v>
+      </c>
+      <c r="G412" s="9">
+        <v>0.9792</v>
+      </c>
+      <c r="H412" s="9">
+        <v>0.9158</v>
+      </c>
+      <c r="I412" s="9">
+        <v>0.9276</v>
+      </c>
+      <c r="J412" s="9">
+        <v>0.8918</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10">
+      <c r="A415" t="s">
+        <v>30</v>
+      </c>
+      <c r="B415">
+        <v>0.9534</v>
+      </c>
+      <c r="C415">
+        <v>0.7666</v>
+      </c>
+      <c r="D415">
+        <v>0.9837</v>
+      </c>
+      <c r="E415">
+        <v>0.8954</v>
+      </c>
+      <c r="F415">
+        <v>0.8635</v>
+      </c>
+      <c r="G415" s="16">
+        <v>0.9806</v>
+      </c>
+      <c r="H415">
+        <v>0.9274</v>
+      </c>
+      <c r="I415">
+        <v>0.9249</v>
+      </c>
+      <c r="J415">
+        <v>0.8752</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10">
+      <c r="A419" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D419" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E419" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F419" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G419" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H419" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I419" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J419" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10">
+      <c r="A420" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B420" s="5">
+        <v>0.8878</v>
+      </c>
+      <c r="C420" s="5">
+        <v>0.8571</v>
+      </c>
+      <c r="D420" s="5">
+        <v>0.9027</v>
+      </c>
+      <c r="E420" s="5">
+        <v>0.874</v>
+      </c>
+      <c r="F420" s="5">
+        <v>0.8775</v>
+      </c>
+      <c r="G420" s="5">
+        <v>0.9367</v>
+      </c>
+      <c r="H420" s="5">
+        <v>0.8765</v>
+      </c>
+      <c r="I420" s="5">
+        <v>0.8757</v>
+      </c>
+      <c r="J420" s="5">
+        <v>0.8799</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10">
+      <c r="A421" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B421" s="5">
+        <v>0.841</v>
+      </c>
+      <c r="C421" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D421" s="5">
+        <v>0.8608</v>
+      </c>
+      <c r="E421" s="5">
+        <v>0.8225</v>
+      </c>
+      <c r="F421" s="5">
+        <v>0.828</v>
+      </c>
+      <c r="G421" s="5">
+        <v>0.9223</v>
+      </c>
+      <c r="H421" s="5">
+        <v>0.834</v>
+      </c>
+      <c r="I421" s="5">
+        <v>0.8211</v>
+      </c>
+      <c r="J421" s="5">
+        <v>0.8304</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10">
+      <c r="A422" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B422" s="5">
+        <v>0.8596</v>
+      </c>
+      <c r="C422" s="5">
+        <v>0.8286</v>
+      </c>
+      <c r="D422" s="5">
+        <v>0.8749</v>
+      </c>
+      <c r="E422" s="5">
+        <v>0.8428</v>
+      </c>
+      <c r="F422" s="5">
+        <v>0.8475</v>
+      </c>
+      <c r="G422" s="5">
+        <v>0.9133</v>
+      </c>
+      <c r="H422" s="5">
+        <v>0.8378</v>
+      </c>
+      <c r="I422" s="5">
+        <v>0.8464</v>
+      </c>
+      <c r="J422" s="5">
+        <v>0.8517</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10">
+      <c r="A423" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B423" s="5">
+        <v>0.8128</v>
+      </c>
+      <c r="C423" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D423" s="5">
+        <v>0.8197</v>
+      </c>
+      <c r="E423" s="5">
+        <v>0.7944</v>
+      </c>
+      <c r="F423" s="5">
+        <v>0.8064</v>
+      </c>
+      <c r="G423" s="5">
+        <v>0.8967</v>
+      </c>
+      <c r="H423" s="5">
+        <v>0.8074</v>
+      </c>
+      <c r="I423" s="5">
+        <v>0.7915</v>
+      </c>
+      <c r="J423" s="5">
+        <v>0.8099</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10">
+      <c r="A424" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B424" s="5">
+        <v>0.8178</v>
+      </c>
+      <c r="C424" s="5">
+        <v>0.7571</v>
+      </c>
+      <c r="D424" s="5">
+        <v>0.8478</v>
+      </c>
+      <c r="E424" s="5">
+        <v>0.7971</v>
+      </c>
+      <c r="F424" s="5">
+        <v>0.7981</v>
+      </c>
+      <c r="G424" s="5">
+        <v>0.8769</v>
+      </c>
+      <c r="H424" s="5">
+        <v>0.783</v>
+      </c>
+      <c r="I424" s="5">
+        <v>0.8033</v>
+      </c>
+      <c r="J424" s="5">
+        <v>0.8025</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10">
+      <c r="A425" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B425" s="5">
+        <v>0.846</v>
+      </c>
+      <c r="C425" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D425" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E425" s="5">
+        <v>0.8349</v>
+      </c>
+      <c r="F425" s="5">
+        <v>0.8572</v>
+      </c>
+      <c r="G425" s="5">
+        <v>0.9325</v>
+      </c>
+      <c r="H425" s="5">
+        <v>0.8714</v>
+      </c>
+      <c r="I425" s="5">
+        <v>0.8302</v>
+      </c>
+      <c r="J425" s="5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10">
+      <c r="A426" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B426" s="5">
+        <v>0.7567</v>
+      </c>
+      <c r="C426" s="5">
+        <v>0.8286</v>
+      </c>
+      <c r="D426" s="5">
+        <v>0.7224</v>
+      </c>
+      <c r="E426" s="5">
+        <v>0.7425</v>
+      </c>
+      <c r="F426" s="5">
+        <v>0.7679</v>
+      </c>
+      <c r="G426" s="5">
+        <v>0.8446</v>
+      </c>
+      <c r="H426" s="5">
+        <v>0.7399</v>
+      </c>
+      <c r="I426" s="5">
+        <v>0.7489</v>
+      </c>
+      <c r="J426" s="5">
+        <v>0.7755</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10">
+      <c r="A427" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B427" s="5">
+        <v>0.813</v>
+      </c>
+      <c r="C427" s="5">
+        <v>0.7286</v>
+      </c>
+      <c r="D427" s="5">
+        <v>0.8542</v>
+      </c>
+      <c r="E427" s="5">
+        <v>0.7885</v>
+      </c>
+      <c r="F427" s="5">
+        <v>0.7874</v>
+      </c>
+      <c r="G427" s="5">
+        <v>0.8801</v>
+      </c>
+      <c r="H427" s="5">
+        <v>0.7955</v>
+      </c>
+      <c r="I427" s="5">
+        <v>0.7893</v>
+      </c>
+      <c r="J427" s="5">
+        <v>0.7914</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10">
+      <c r="A428" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B428" s="5">
+        <v>0.8598</v>
+      </c>
+      <c r="C428" s="5">
+        <v>0.7857</v>
+      </c>
+      <c r="D428" s="5">
+        <v>0.8958</v>
+      </c>
+      <c r="E428" s="5">
+        <v>0.8401</v>
+      </c>
+      <c r="F428" s="5">
+        <v>0.8379</v>
+      </c>
+      <c r="G428" s="5">
+        <v>0.9025</v>
+      </c>
+      <c r="H428" s="5">
+        <v>0.8219</v>
+      </c>
+      <c r="I428" s="5">
+        <v>0.841</v>
+      </c>
+      <c r="J428" s="5">
+        <v>0.8408</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10">
+      <c r="A429" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B429" s="5">
+        <v>0.8692</v>
+      </c>
+      <c r="C429" s="5">
+        <v>0.8143</v>
+      </c>
+      <c r="D429" s="5">
+        <v>0.8961</v>
+      </c>
+      <c r="E429" s="5">
+        <v>0.8529</v>
+      </c>
+      <c r="F429" s="5">
+        <v>0.8533</v>
+      </c>
+      <c r="G429" s="5">
+        <v>0.9277</v>
+      </c>
+      <c r="H429" s="5">
+        <v>0.8743</v>
+      </c>
+      <c r="I429" s="5">
+        <v>0.855</v>
+      </c>
+      <c r="J429" s="5">
+        <v>0.8552</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10">
+      <c r="A430" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B430" s="5">
+        <v>0.8177</v>
+      </c>
+      <c r="C430" s="5">
+        <v>0.7714</v>
+      </c>
+      <c r="D430" s="5">
+        <v>0.8404</v>
+      </c>
+      <c r="E430" s="5">
+        <v>0.7981</v>
+      </c>
+      <c r="F430" s="5">
+        <v>0.8041</v>
+      </c>
+      <c r="G430" s="5">
+        <v>0.854</v>
+      </c>
+      <c r="H430" s="5">
+        <v>0.7176</v>
+      </c>
+      <c r="I430" s="5">
+        <v>0.7952</v>
+      </c>
+      <c r="J430" s="5">
+        <v>0.8059</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10">
+      <c r="A431" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B431" s="5">
+        <v>0.869</v>
+      </c>
+      <c r="C431" s="5">
+        <v>0.7714</v>
+      </c>
+      <c r="D431" s="5">
+        <v>0.9165</v>
+      </c>
+      <c r="E431" s="5">
+        <v>0.8488</v>
+      </c>
+      <c r="F431" s="5">
+        <v>0.8401</v>
+      </c>
+      <c r="G431" s="5">
+        <v>0.9222</v>
+      </c>
+      <c r="H431" s="5">
+        <v>0.856</v>
+      </c>
+      <c r="I431" s="5">
+        <v>0.8572</v>
+      </c>
+      <c r="J431" s="5">
+        <v>0.844</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10">
+      <c r="A432" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B432" s="5">
+        <v>0.8224</v>
+      </c>
+      <c r="C432" s="5">
+        <v>0.7429</v>
+      </c>
+      <c r="D432" s="5">
+        <v>0.8613</v>
+      </c>
+      <c r="E432" s="5">
+        <v>0.7985</v>
+      </c>
+      <c r="F432" s="5">
+        <v>0.7975</v>
+      </c>
+      <c r="G432" s="5">
+        <v>0.8728</v>
+      </c>
+      <c r="H432" s="5">
+        <v>0.7475</v>
+      </c>
+      <c r="I432" s="5">
+        <v>0.8001</v>
+      </c>
+      <c r="J432" s="5">
+        <v>0.8021</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10">
+      <c r="A433" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B433" s="5">
+        <v>0.8783</v>
+      </c>
+      <c r="C433" s="5">
+        <v>0.7714</v>
+      </c>
+      <c r="D433" s="5">
+        <v>0.9303</v>
+      </c>
+      <c r="E433" s="5">
+        <v>0.859</v>
+      </c>
+      <c r="F433" s="5">
+        <v>0.8461</v>
+      </c>
+      <c r="G433" s="5">
+        <v>0.9244</v>
+      </c>
+      <c r="H433" s="5">
+        <v>0.8619</v>
+      </c>
+      <c r="I433" s="5">
+        <v>0.8744</v>
+      </c>
+      <c r="J433" s="5">
+        <v>0.8509</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10">
+      <c r="A434" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B434" s="5">
+        <v>0.8319</v>
+      </c>
+      <c r="C434" s="5">
+        <v>0.7571</v>
+      </c>
+      <c r="D434" s="5">
+        <v>0.8685</v>
+      </c>
+      <c r="E434" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="F434" s="5">
+        <v>0.8087</v>
+      </c>
+      <c r="G434" s="5">
+        <v>0.8674</v>
+      </c>
+      <c r="H434" s="5">
+        <v>0.7498</v>
+      </c>
+      <c r="I434" s="5">
+        <v>0.8146</v>
+      </c>
+      <c r="J434" s="5">
+        <v>0.8128</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10">
+      <c r="A435" s="1"/>
+      <c r="B435" s="9"/>
+      <c r="C435" s="9"/>
+      <c r="D435" s="9"/>
+      <c r="E435" s="9"/>
+      <c r="F435" s="9"/>
+      <c r="G435" s="9"/>
+      <c r="H435" s="9"/>
+      <c r="I435" s="9"/>
+      <c r="J435" s="9"/>
+    </row>
+    <row r="436" spans="1:10">
+      <c r="A436" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B436" s="9"/>
+      <c r="C436" s="9"/>
+      <c r="D436" s="9"/>
+      <c r="E436" s="9"/>
+      <c r="F436" s="9"/>
+      <c r="G436" s="9"/>
+      <c r="H436" s="9"/>
+      <c r="I436" s="9"/>
+      <c r="J436" s="9"/>
+    </row>
+    <row r="437" spans="1:10">
+      <c r="A437" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+      <c r="E437" s="1"/>
+      <c r="F437" s="1"/>
+      <c r="G437" s="1"/>
+      <c r="H437" s="1"/>
+      <c r="I437" s="1"/>
+      <c r="J437" s="1"/>
+    </row>
+    <row r="438" spans="1:10">
+      <c r="A438" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
+      <c r="E438" s="1"/>
+      <c r="F438" s="1"/>
+      <c r="G438" s="1"/>
+      <c r="H438" s="1"/>
+      <c r="I438" s="1"/>
+      <c r="J438" s="1"/>
+    </row>
+    <row r="439" spans="1:10">
+      <c r="A439" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B439" s="1">
+        <v>0.8409</v>
+      </c>
+      <c r="C439" s="1">
+        <v>0.6857</v>
+      </c>
+      <c r="D439" s="1">
+        <v>0.9165</v>
+      </c>
+      <c r="E439" s="1">
+        <v>0.8041</v>
+      </c>
+      <c r="F439" s="1">
+        <v>0.7797</v>
+      </c>
+      <c r="G439" s="2">
+        <v>0.9408</v>
+      </c>
+      <c r="H439" s="2">
+        <v>0.8923</v>
+      </c>
+      <c r="I439" s="1">
+        <v>0.8478</v>
+      </c>
+      <c r="J439" s="1">
+        <v>0.8011</v>
       </c>
     </row>
   </sheetData>
